--- a/Texts/Сюжетные сцены/Глава 1.xlsx
+++ b/Texts/Сюжетные сцены/Глава 1.xlsx
@@ -3017,15 +3017,9 @@
     <t xml:space="preserve"> Я считаю, что из тебя\nполучится первоклассный исследователь,\n[hero].</t>
   </si>
   <si>
-    <t xml:space="preserve"> Я считаю, что из тебя\nполучится первоклассная исследователница,\n[hero].</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Поэтому, я тебя умоляю.[K]\nДавай создадим команду исследователей.\nТолько ты и я.</t>
   </si>
   <si>
-    <t xml:space="preserve"> Поэтому, прошу.[K]Давай\nвместе создадим команду исследователей.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Пожалуйста? Прошу, давай\nсоздадим команду исследователей!</t>
   </si>
   <si>
@@ -3395,9 +3389,6 @@
     <t xml:space="preserve"> Ÿ òœéóàý, œóï éè óåáÿ\nðïìôœéóòÿ ðåñâïëìàòòîúê éòòìåäïâàóåìû,\n[hero].</t>
   </si>
   <si>
-    <t xml:space="preserve"> Ÿ òœéóàý, œóï éè óåáÿ\nðïìôœéóòÿ ðåñâïëìàòòîàÿ éòòìåäïâàóåìîéøà,\n[hero].</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Ðïüóïíô, ÿ óåáÿ ôíïìÿý.[K]\nÄàâàê òïèäàäéí ëïíàîäô éòòìåäïâàóåìåê.\nÓïìûëï óú é ÿ.</t>
   </si>
   <si>
@@ -3549,6 +3540,15 @@
   </si>
   <si>
     <t xml:space="preserve"> Óú îàâåñîÿëà ïþôþàåšû óï çå\nòàíïå œôâòóâï?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Поэтому, прошу.[K] Давай\nвместе создадим команду исследователей.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я считаю, что из тебя\nполучится первоклассная исследовательница,\n[hero].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ òœéóàý, œóï éè óåáÿ\nðïìôœéóòÿ ðåñâïëìàòòîàÿ éòòìåäïâàóåìûîéøà,\n[hero].</t>
   </si>
 </sst>
 </file>
@@ -4429,8 +4429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H358"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A238" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E239" sqref="E239"/>
+    <sheetView tabSelected="1" topLeftCell="B304" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E309" sqref="E309"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8299,7 +8299,7 @@
         <v>921</v>
       </c>
       <c r="F229" s="4" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.3">
@@ -8314,7 +8314,7 @@
         <v>922</v>
       </c>
       <c r="F230" s="4" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.3">
@@ -8329,7 +8329,7 @@
         <v>923</v>
       </c>
       <c r="F231" s="4" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="232" spans="1:6" ht="30.6" x14ac:dyDescent="0.3">
@@ -8344,7 +8344,7 @@
         <v>924</v>
       </c>
       <c r="F232" s="4" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="233" spans="1:6" ht="30.6" x14ac:dyDescent="0.3">
@@ -8359,7 +8359,7 @@
         <v>925</v>
       </c>
       <c r="F233" s="4" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="234" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -8375,7 +8375,7 @@
         <v>926</v>
       </c>
       <c r="F234" s="4" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.3">
@@ -8391,7 +8391,7 @@
         <v>927</v>
       </c>
       <c r="F235" s="4" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.3">
@@ -8407,7 +8407,7 @@
         <v>928</v>
       </c>
       <c r="F236" s="4" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="237" spans="1:6" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -8423,7 +8423,7 @@
         <v>929</v>
       </c>
       <c r="F237" s="4" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="238" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -8439,7 +8439,7 @@
         <v>930</v>
       </c>
       <c r="F238" s="4" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="239" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -8454,7 +8454,7 @@
         <v>931</v>
       </c>
       <c r="F239" s="4" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="240" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -8469,7 +8469,7 @@
         <v>932</v>
       </c>
       <c r="F240" s="4" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="241" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -8484,7 +8484,7 @@
         <v>933</v>
       </c>
       <c r="F241" s="4" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="242" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -8499,7 +8499,7 @@
         <v>933</v>
       </c>
       <c r="F242" s="4" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="243" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -8512,10 +8512,10 @@
         <v>775</v>
       </c>
       <c r="E243" s="4" t="s">
-        <v>1173</v>
+        <v>1170</v>
       </c>
       <c r="F243" s="4" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="244" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -8531,7 +8531,7 @@
         <v>934</v>
       </c>
       <c r="F244" s="4" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="245" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -8547,7 +8547,7 @@
         <v>935</v>
       </c>
       <c r="F245" s="4" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="246" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -8563,7 +8563,7 @@
         <v>936</v>
       </c>
       <c r="F246" s="4" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="247" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -8579,7 +8579,7 @@
         <v>937</v>
       </c>
       <c r="F247" s="4" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="248" spans="1:6" ht="30.6" x14ac:dyDescent="0.3">
@@ -8594,7 +8594,7 @@
         <v>938</v>
       </c>
       <c r="F248" s="4" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="249" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -8609,7 +8609,7 @@
         <v>939</v>
       </c>
       <c r="F249" s="4" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="250" spans="1:6" ht="30.6" x14ac:dyDescent="0.3">
@@ -8624,7 +8624,7 @@
         <v>940</v>
       </c>
       <c r="F250" s="4" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="251" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -8639,7 +8639,7 @@
         <v>941</v>
       </c>
       <c r="F251" s="4" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="252" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -8654,7 +8654,7 @@
         <v>942</v>
       </c>
       <c r="F252" s="4" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="253" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -8669,7 +8669,7 @@
         <v>943</v>
       </c>
       <c r="F253" s="4" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="254" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -8684,7 +8684,7 @@
         <v>944</v>
       </c>
       <c r="F254" s="4" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="255" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -8699,7 +8699,7 @@
         <v>945</v>
       </c>
       <c r="F255" s="4" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="256" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -8714,7 +8714,7 @@
         <v>946</v>
       </c>
       <c r="F256" s="4" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="257" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -8729,7 +8729,7 @@
         <v>947</v>
       </c>
       <c r="F257" s="4" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="258" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -8744,7 +8744,7 @@
         <v>948</v>
       </c>
       <c r="F258" s="4" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="259" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -8759,7 +8759,7 @@
         <v>949</v>
       </c>
       <c r="F259" s="4" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="260" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -8774,7 +8774,7 @@
         <v>950</v>
       </c>
       <c r="F260" s="4" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="261" spans="1:6" ht="30.6" x14ac:dyDescent="0.3">
@@ -8789,7 +8789,7 @@
         <v>951</v>
       </c>
       <c r="F261" s="4" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="262" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -8804,7 +8804,7 @@
         <v>952</v>
       </c>
       <c r="F262" s="4" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="263" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -8820,7 +8820,7 @@
         <v>953</v>
       </c>
       <c r="F263" s="4" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.3">
@@ -8835,7 +8835,7 @@
         <v>954</v>
       </c>
       <c r="F264" s="4" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.3">
@@ -8850,7 +8850,7 @@
         <v>955</v>
       </c>
       <c r="F265" s="4" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="266" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -8865,7 +8865,7 @@
         <v>956</v>
       </c>
       <c r="F266" s="4" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="267" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -8880,7 +8880,7 @@
         <v>957</v>
       </c>
       <c r="F267" s="4" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="268" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -8895,7 +8895,7 @@
         <v>958</v>
       </c>
       <c r="F268" s="4" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="269" spans="1:6" ht="30.6" x14ac:dyDescent="0.3">
@@ -8911,7 +8911,7 @@
         <v>959</v>
       </c>
       <c r="F269" s="4" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.3">
@@ -8927,7 +8927,7 @@
         <v>960</v>
       </c>
       <c r="F270" s="4" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="271" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -8943,7 +8943,7 @@
         <v>961</v>
       </c>
       <c r="F271" s="4" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="272" spans="1:6" ht="30.6" x14ac:dyDescent="0.3">
@@ -8959,7 +8959,7 @@
         <v>962</v>
       </c>
       <c r="F272" s="4" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="273" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -8975,7 +8975,7 @@
         <v>963</v>
       </c>
       <c r="F273" s="4" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="274" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -8990,7 +8990,7 @@
         <v>964</v>
       </c>
       <c r="F274" s="4" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="275" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -9005,7 +9005,7 @@
         <v>965</v>
       </c>
       <c r="F275" s="4" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.3">
@@ -9020,7 +9020,7 @@
         <v>966</v>
       </c>
       <c r="F276" s="4" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.3">
@@ -9035,7 +9035,7 @@
         <v>967</v>
       </c>
       <c r="F277" s="4" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="278" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -9051,7 +9051,7 @@
         <v>968</v>
       </c>
       <c r="F278" s="4" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="279" spans="1:6" ht="30.6" x14ac:dyDescent="0.3">
@@ -9067,7 +9067,7 @@
         <v>969</v>
       </c>
       <c r="F279" s="4" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="280" spans="1:6" ht="30.6" x14ac:dyDescent="0.3">
@@ -9083,7 +9083,7 @@
         <v>970</v>
       </c>
       <c r="F280" s="4" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="281" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -9098,7 +9098,7 @@
         <v>971</v>
       </c>
       <c r="F281" s="4" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="282" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -9113,7 +9113,7 @@
         <v>972</v>
       </c>
       <c r="F282" s="4" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="283" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -9129,7 +9129,7 @@
         <v>973</v>
       </c>
       <c r="F283" s="4" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="284" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -9144,7 +9144,7 @@
         <v>974</v>
       </c>
       <c r="F284" s="4" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="285" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -9159,7 +9159,7 @@
         <v>975</v>
       </c>
       <c r="F285" s="4" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="286" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -9174,7 +9174,7 @@
         <v>976</v>
       </c>
       <c r="F286" s="4" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="287" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -9189,7 +9189,7 @@
         <v>977</v>
       </c>
       <c r="F287" s="4" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="288" spans="1:6" ht="30.6" x14ac:dyDescent="0.3">
@@ -9204,7 +9204,7 @@
         <v>978</v>
       </c>
       <c r="F288" s="4" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="289" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -9219,7 +9219,7 @@
         <v>979</v>
       </c>
       <c r="F289" s="4" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="290" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
@@ -9234,7 +9234,7 @@
         <v>980</v>
       </c>
       <c r="F290" s="4" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.3">
@@ -9249,7 +9249,7 @@
         <v>981</v>
       </c>
       <c r="F291" s="4" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="292" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -9264,7 +9264,7 @@
         <v>982</v>
       </c>
       <c r="F292" s="4" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="293" spans="1:6" ht="30.6" x14ac:dyDescent="0.3">
@@ -9280,7 +9280,7 @@
         <v>983</v>
       </c>
       <c r="F293" s="4" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="294" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -9296,7 +9296,7 @@
         <v>984</v>
       </c>
       <c r="F294" s="4" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="295" spans="1:6" ht="30.6" x14ac:dyDescent="0.3">
@@ -9312,7 +9312,7 @@
         <v>985</v>
       </c>
       <c r="F295" s="4" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.3">
@@ -9327,7 +9327,7 @@
         <v>986</v>
       </c>
       <c r="F296" s="4" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.3">
@@ -9342,7 +9342,7 @@
         <v>987</v>
       </c>
       <c r="F297" s="4" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.3">
@@ -9357,7 +9357,7 @@
         <v>988</v>
       </c>
       <c r="F298" s="4" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.3">
@@ -9372,7 +9372,7 @@
         <v>989</v>
       </c>
       <c r="F299" s="4" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.3">
@@ -9387,7 +9387,7 @@
         <v>990</v>
       </c>
       <c r="F300" s="4" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="301" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -9403,7 +9403,7 @@
         <v>991</v>
       </c>
       <c r="F301" s="4" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="302" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -9418,7 +9418,7 @@
         <v>992</v>
       </c>
       <c r="F302" s="4" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="303" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -9433,7 +9433,7 @@
         <v>993</v>
       </c>
       <c r="F303" s="4" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="304" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -9448,7 +9448,7 @@
         <v>994</v>
       </c>
       <c r="F304" s="4" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="305" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -9463,7 +9463,7 @@
         <v>995</v>
       </c>
       <c r="F305" s="4" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="306" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -9478,7 +9478,7 @@
         <v>996</v>
       </c>
       <c r="F306" s="4" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="307" spans="1:6" ht="30.6" x14ac:dyDescent="0.3">
@@ -9490,10 +9490,10 @@
         <v>857</v>
       </c>
       <c r="E307" s="4" t="s">
-        <v>997</v>
+        <v>1173</v>
       </c>
       <c r="F307" s="4" t="s">
-        <v>1123</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="308" spans="1:6" ht="30.6" x14ac:dyDescent="0.3">
@@ -9505,10 +9505,10 @@
         <v>858</v>
       </c>
       <c r="E308" s="4" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="F308" s="4" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="309" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -9520,10 +9520,10 @@
         <v>859</v>
       </c>
       <c r="E309" s="4" t="s">
-        <v>999</v>
+        <v>1172</v>
       </c>
       <c r="F309" s="4" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="310" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -9535,10 +9535,10 @@
         <v>860</v>
       </c>
       <c r="E310" s="4" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="F310" s="4" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.3">
@@ -9550,10 +9550,10 @@
         <v>861</v>
       </c>
       <c r="E311" s="4" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="F311" s="4" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.3">
@@ -9566,10 +9566,10 @@
         <v>862</v>
       </c>
       <c r="E312" s="4" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="F312" s="4" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="313" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -9582,10 +9582,10 @@
         <v>863</v>
       </c>
       <c r="E313" s="4" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="F313" s="4" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.3">
@@ -9597,10 +9597,10 @@
         <v>865</v>
       </c>
       <c r="E314" s="4" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="F314" s="4" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.3">
@@ -9613,10 +9613,10 @@
         <v>866</v>
       </c>
       <c r="E315" s="4" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="F315" s="4" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.3">
@@ -9628,10 +9628,10 @@
         <v>868</v>
       </c>
       <c r="E316" s="4" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="F316" s="4" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.3">
@@ -9643,10 +9643,10 @@
         <v>869</v>
       </c>
       <c r="E317" s="4" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="F317" s="4" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="318" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -9658,10 +9658,10 @@
         <v>870</v>
       </c>
       <c r="E318" s="4" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="F318" s="4" t="s">
-        <v>1134</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="319" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -9673,10 +9673,10 @@
         <v>871</v>
       </c>
       <c r="E319" s="4" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="F319" s="4" t="s">
-        <v>1135</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="320" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -9688,10 +9688,10 @@
         <v>871</v>
       </c>
       <c r="E320" s="4" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="F320" s="4" t="s">
-        <v>1136</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="321" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -9703,10 +9703,10 @@
         <v>872</v>
       </c>
       <c r="E321" s="4" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="F321" s="4" t="s">
-        <v>1137</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="322" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -9718,10 +9718,10 @@
         <v>872</v>
       </c>
       <c r="E322" s="4" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="F322" s="4" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="323" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -9734,10 +9734,10 @@
         <v>875</v>
       </c>
       <c r="E323" s="4" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="F323" s="4" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="324" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -9749,10 +9749,10 @@
         <v>877</v>
       </c>
       <c r="E324" s="4" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="F324" s="4" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="325" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -9764,10 +9764,10 @@
         <v>877</v>
       </c>
       <c r="E325" s="4" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="F325" s="4" t="s">
-        <v>1141</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="326" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -9779,10 +9779,10 @@
         <v>879</v>
       </c>
       <c r="E326" s="4" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="F326" s="4" t="s">
-        <v>1142</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="327" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -9794,10 +9794,10 @@
         <v>879</v>
       </c>
       <c r="E327" s="4" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="F327" s="4" t="s">
-        <v>1142</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="328" spans="1:6" ht="30.6" x14ac:dyDescent="0.3">
@@ -9810,10 +9810,10 @@
         <v>858</v>
       </c>
       <c r="E328" s="4" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="F328" s="4" t="s">
-        <v>1143</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="329" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -9826,10 +9826,10 @@
         <v>882</v>
       </c>
       <c r="E329" s="4" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="F329" s="4" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="330" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -9842,10 +9842,10 @@
         <v>884</v>
       </c>
       <c r="E330" s="4" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="F330" s="4" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="331" spans="1:6" ht="30.6" x14ac:dyDescent="0.3">
@@ -9858,10 +9858,10 @@
         <v>886</v>
       </c>
       <c r="E331" s="4" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="F331" s="4" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="332" spans="1:6" ht="30.6" x14ac:dyDescent="0.3">
@@ -9874,10 +9874,10 @@
         <v>887</v>
       </c>
       <c r="E332" s="4" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="F332" s="4" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.3">
@@ -9890,10 +9890,10 @@
         <v>890</v>
       </c>
       <c r="E333" s="4" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="F333" s="4" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.3">
@@ -9905,10 +9905,10 @@
         <v>892</v>
       </c>
       <c r="E334" s="4" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="F334" s="4" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.3">
@@ -9920,10 +9920,10 @@
         <v>893</v>
       </c>
       <c r="E335" s="4" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="F335" s="4" t="s">
-        <v>1150</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="336" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -9935,10 +9935,10 @@
         <v>895</v>
       </c>
       <c r="E336" s="4" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="F336" s="4" t="s">
-        <v>1151</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="337" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -9950,10 +9950,10 @@
         <v>897</v>
       </c>
       <c r="E337" s="4" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="F337" s="4" t="s">
-        <v>1152</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.3">
@@ -9965,10 +9965,10 @@
         <v>898</v>
       </c>
       <c r="E338" s="4" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="F338" s="4" t="s">
-        <v>1153</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.3">
@@ -9980,10 +9980,10 @@
         <v>899</v>
       </c>
       <c r="E339" s="4" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="F339" s="4" t="s">
-        <v>1154</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.3">
@@ -9995,10 +9995,10 @@
         <v>900</v>
       </c>
       <c r="E340" s="4" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="F340" s="4" t="s">
-        <v>1155</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="341" spans="1:6" ht="30.6" x14ac:dyDescent="0.3">
@@ -10011,10 +10011,10 @@
         <v>901</v>
       </c>
       <c r="E341" s="4" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="F341" s="4" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="342" spans="1:6" ht="30.6" x14ac:dyDescent="0.3">
@@ -10026,10 +10026,10 @@
         <v>903</v>
       </c>
       <c r="E342" s="4" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="F342" s="4" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="343" spans="1:6" ht="30.6" x14ac:dyDescent="0.3">
@@ -10041,10 +10041,10 @@
         <v>904</v>
       </c>
       <c r="E343" s="4" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="F343" s="4" t="s">
-        <v>1158</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="344" spans="1:6" ht="30.6" x14ac:dyDescent="0.3">
@@ -10056,10 +10056,10 @@
         <v>905</v>
       </c>
       <c r="E344" s="4" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="F344" s="4" t="s">
-        <v>1159</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="345" spans="1:6" ht="30.6" x14ac:dyDescent="0.3">
@@ -10071,10 +10071,10 @@
         <v>906</v>
       </c>
       <c r="E345" s="4" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="F345" s="4" t="s">
-        <v>1160</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="346" spans="1:6" ht="30.6" x14ac:dyDescent="0.3">
@@ -10086,10 +10086,10 @@
         <v>907</v>
       </c>
       <c r="E346" s="4" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="F346" s="4" t="s">
-        <v>1161</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="347" spans="1:6" ht="30.6" x14ac:dyDescent="0.3">
@@ -10101,10 +10101,10 @@
         <v>908</v>
       </c>
       <c r="E347" s="4" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="F347" s="4" t="s">
-        <v>1162</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="348" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -10116,10 +10116,10 @@
         <v>909</v>
       </c>
       <c r="E348" s="4" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="F348" s="4" t="s">
-        <v>1163</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="349" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -10131,10 +10131,10 @@
         <v>910</v>
       </c>
       <c r="E349" s="4" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="F349" s="4" t="s">
-        <v>1164</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="350" spans="1:6" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -10146,10 +10146,10 @@
         <v>911</v>
       </c>
       <c r="E350" s="4" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="F350" s="4" t="s">
-        <v>1163</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="351" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -10161,10 +10161,10 @@
         <v>912</v>
       </c>
       <c r="E351" s="4" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="F351" s="4" t="s">
-        <v>1165</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="352" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -10176,10 +10176,10 @@
         <v>913</v>
       </c>
       <c r="E352" s="4" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="F352" s="4" t="s">
-        <v>1166</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.3">
@@ -10191,10 +10191,10 @@
         <v>915</v>
       </c>
       <c r="E353" s="4" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="F353" s="4" t="s">
-        <v>1167</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.3">
@@ -10206,10 +10206,10 @@
         <v>916</v>
       </c>
       <c r="E354" s="4" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="F354" s="4" t="s">
-        <v>1168</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.3">
@@ -10221,10 +10221,10 @@
         <v>917</v>
       </c>
       <c r="E355" s="4" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="F355" s="4" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.3">
@@ -10236,10 +10236,10 @@
         <v>918</v>
       </c>
       <c r="E356" s="4" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="F356" s="4" t="s">
-        <v>1170</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.3">
@@ -10251,10 +10251,10 @@
         <v>919</v>
       </c>
       <c r="E357" s="4" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="F357" s="4" t="s">
-        <v>1171</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="358" spans="1:6" ht="30.6" x14ac:dyDescent="0.3">
@@ -10266,10 +10266,10 @@
         <v>920</v>
       </c>
       <c r="E358" s="4" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="F358" s="4" t="s">
-        <v>1172</v>
+        <v>1169</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Сюжетные сцены/Глава 1.xlsx
+++ b/Texts/Сюжетные сцены/Глава 1.xlsx
@@ -3590,7 +3590,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3642,6 +3642,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3911,7 +3917,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -4145,6 +4151,15 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4429,8 +4444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H358"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B304" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E309" sqref="E309"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4473,7 +4488,7 @@
       <c r="A2" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="79" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="26">
@@ -4496,7 +4511,7 @@
       <c r="A3" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="32"/>
+      <c r="B3" s="80"/>
       <c r="C3" s="25">
         <v>27</v>
       </c>
@@ -4515,7 +4530,7 @@
     </row>
     <row r="4" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="35"/>
-      <c r="B4" s="32"/>
+      <c r="B4" s="80"/>
       <c r="C4" s="25">
         <v>30</v>
       </c>
@@ -4534,7 +4549,7 @@
     </row>
     <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="35"/>
-      <c r="B5" s="32"/>
+      <c r="B5" s="80"/>
       <c r="C5" s="25">
         <v>39</v>
       </c>
@@ -4553,7 +4568,7 @@
     </row>
     <row r="6" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="35"/>
-      <c r="B6" s="32"/>
+      <c r="B6" s="80"/>
       <c r="C6" s="25">
         <v>42</v>
       </c>
@@ -4572,7 +4587,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="35"/>
-      <c r="B7" s="32"/>
+      <c r="B7" s="80"/>
       <c r="C7" s="25">
         <v>51</v>
       </c>
@@ -4591,7 +4606,7 @@
     </row>
     <row r="8" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="36"/>
-      <c r="B8" s="37"/>
+      <c r="B8" s="81"/>
       <c r="C8" s="38">
         <v>75</v>
       </c>

--- a/Texts/Сюжетные сцены/Глава 1.xlsx
+++ b/Texts/Сюжетные сцены/Глава 1.xlsx
@@ -992,15 +992,6 @@
     <t>Это твое, не так ли?</t>
   </si>
   <si>
-    <t>Эй! Это...!</t>
-  </si>
-  <si>
-    <t>Нет! Это...!</t>
-  </si>
-  <si>
-    <t>Ох! Это...!</t>
-  </si>
-  <si>
     <t>Ааааа!</t>
   </si>
   <si>
@@ -1259,15 +1250,6 @@
     <t>Üóï óâïå, îå óàë ìé?</t>
   </si>
   <si>
-    <t>Üê! Üóï...!</t>
-  </si>
-  <si>
-    <t>Îåó! Üóï...!</t>
-  </si>
-  <si>
-    <t>Ïö! Üóï...!</t>
-  </si>
-  <si>
     <t>Ààààà!</t>
   </si>
   <si>
@@ -1382,9 +1364,6 @@
     <t>Охохо... Это было не так уж\nхорошо.</t>
   </si>
   <si>
-    <t>...Возможно это одно из тех\nсамых подземелий-загадок?</t>
-  </si>
-  <si>
     <t>Эй! У нас нет на это времени!</t>
   </si>
   <si>
@@ -1418,9 +1397,6 @@
     <t>Ïöïöï... Üóï áúìï îå óàë ôç\nöïñïšï.</t>
   </si>
   <si>
-    <t>...Âïèíïçîï üóï ïäîï éè óåö\nòàíúö ðïäèåíåìéê-èàãàäïë?</t>
-  </si>
-  <si>
     <t>Üê! Ô îàò îåó îà üóï âñåíåîé!</t>
   </si>
   <si>
@@ -3549,6 +3525,30 @@
   </si>
   <si>
     <t xml:space="preserve"> Ÿ òœéóàý, œóï éè óåáÿ\nðïìôœéóòÿ ðåñâïëìàòòîàÿ éòòìåäïâàóåìûîéøà,\n[hero].</t>
+  </si>
+  <si>
+    <t>Эй! Это!..</t>
+  </si>
+  <si>
+    <t>Нет! Это!..</t>
+  </si>
+  <si>
+    <t>Ох! Это!..</t>
+  </si>
+  <si>
+    <t>Üê! Üóï!..</t>
+  </si>
+  <si>
+    <t>Îåó! Üóï!..</t>
+  </si>
+  <si>
+    <t>Ïö! Üóï!..</t>
+  </si>
+  <si>
+    <t>...Âïèíïçîï üóï ïäîï éè óåö\nòàíúö óàéîòóâåîîúö ðïäèåíåìéê?</t>
+  </si>
+  <si>
+    <t>...Возможно это одно из тех\nсамых таинственных подземелий?</t>
   </si>
 </sst>
 </file>
@@ -4444,8 +4444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H358"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="B169" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E177" sqref="E177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4466,10 +4466,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="D1" s="23" t="s">
         <v>1</v>
@@ -4481,7 +4481,7 @@
         <v>3</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -4498,13 +4498,13 @@
         <v>20</v>
       </c>
       <c r="E2" s="27" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="F2" s="28" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -4519,13 +4519,13 @@
         <v>5</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -4544,7 +4544,7 @@
         <v>16</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -4563,7 +4563,7 @@
         <v>17</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -4582,7 +4582,7 @@
         <v>18</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -4595,13 +4595,13 @@
         <v>9</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -4620,7 +4620,7 @@
         <v>19</v>
       </c>
       <c r="H8" s="30" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
@@ -4647,7 +4647,7 @@
       <c r="A10" s="35"/>
       <c r="B10" s="32"/>
       <c r="C10" s="32" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="D10" s="12" t="s">
         <v>25</v>
@@ -4663,7 +4663,7 @@
       <c r="A11" s="35"/>
       <c r="B11" s="32"/>
       <c r="C11" s="32" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="D11" s="12" t="s">
         <v>26</v>
@@ -4679,7 +4679,7 @@
       <c r="A12" s="42"/>
       <c r="B12" s="43"/>
       <c r="C12" s="33" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="D12" s="20" t="s">
         <v>27</v>
@@ -4699,7 +4699,7 @@
         <v>36</v>
       </c>
       <c r="C13" s="44" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="D13" s="11" t="s">
         <v>38</v>
@@ -4715,7 +4715,7 @@
       <c r="A14" s="40"/>
       <c r="B14" s="47"/>
       <c r="C14" s="32" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="D14" s="12" t="s">
         <v>39</v>
@@ -4827,7 +4827,7 @@
       <c r="A21" s="40"/>
       <c r="B21" s="47"/>
       <c r="C21" s="32" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="D21" s="12" t="s">
         <v>46</v>
@@ -4843,7 +4843,7 @@
       <c r="A22" s="40"/>
       <c r="B22" s="47"/>
       <c r="C22" s="32" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="D22" s="12" t="s">
         <v>47</v>
@@ -4875,7 +4875,7 @@
       <c r="A24" s="40"/>
       <c r="B24" s="47"/>
       <c r="C24" s="32" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="D24" s="12" t="s">
         <v>49</v>
@@ -4987,16 +4987,16 @@
       <c r="A31" s="40"/>
       <c r="B31" s="32"/>
       <c r="C31" s="32" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="D31" s="12" t="s">
         <v>56</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="F31" s="18" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="30.6" x14ac:dyDescent="0.3">
@@ -5009,10 +5009,10 @@
         <v>56</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="F32" s="18" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -5035,7 +5035,7 @@
       <c r="A34" s="40"/>
       <c r="B34" s="47"/>
       <c r="C34" s="32" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="D34" s="12" t="s">
         <v>58</v>
@@ -5051,7 +5051,7 @@
       <c r="A35" s="40"/>
       <c r="B35" s="32"/>
       <c r="C35" s="32" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="D35" s="12" t="s">
         <v>59</v>
@@ -5073,17 +5073,17 @@
         <v>59</v>
       </c>
       <c r="E36" s="48" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="F36" s="55" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="40"/>
       <c r="B37" s="47"/>
       <c r="C37" s="32" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="D37" s="12" t="s">
         <v>60</v>
@@ -5133,7 +5133,7 @@
       <c r="A40" s="41"/>
       <c r="B40" s="3"/>
       <c r="C40" s="32" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="D40" s="12" t="s">
         <v>63</v>
@@ -5155,17 +5155,17 @@
         <v>63</v>
       </c>
       <c r="E41" s="48" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="F41" s="55" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A42" s="41"/>
       <c r="B42" s="3"/>
       <c r="C42" s="32" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="D42" s="12" t="s">
         <v>64</v>
@@ -5187,26 +5187,26 @@
         <v>64</v>
       </c>
       <c r="E43" s="48" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="F43" s="55" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="41"/>
       <c r="B44" s="3"/>
       <c r="C44" s="32" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="D44" s="12" t="s">
         <v>65</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="F44" s="18" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -5219,10 +5219,10 @@
         <v>65</v>
       </c>
       <c r="E45" s="48" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="F45" s="55" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5255,10 +5255,10 @@
         <v>123</v>
       </c>
       <c r="E47" s="27" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="F47" s="28" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -5301,32 +5301,32 @@
         <v>127</v>
       </c>
       <c r="C50" s="31" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="D50" s="27" t="s">
         <v>129</v>
       </c>
       <c r="E50" s="27" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="F50" s="28" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="40"/>
       <c r="B51" s="15"/>
       <c r="C51" s="32" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="D51" s="12" t="s">
         <v>130</v>
       </c>
       <c r="E51" s="12" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="F51" s="18" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -5339,10 +5339,10 @@
         <v>131</v>
       </c>
       <c r="E52" s="12" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="F52" s="18" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -5355,26 +5355,26 @@
         <v>132</v>
       </c>
       <c r="E53" s="12" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="F53" s="18" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="59"/>
       <c r="B54" s="60"/>
       <c r="C54" s="33" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="D54" s="20" t="s">
         <v>133</v>
       </c>
       <c r="E54" s="20" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="F54" s="21" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -5394,7 +5394,7 @@
         <v>272</v>
       </c>
       <c r="F55" s="28" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -5410,7 +5410,7 @@
         <v>273</v>
       </c>
       <c r="F56" s="18" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -5426,14 +5426,14 @@
         <v>274</v>
       </c>
       <c r="F57" s="18" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A58" s="40"/>
       <c r="B58" s="47"/>
       <c r="C58" s="32" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="D58" s="12" t="s">
         <v>137</v>
@@ -5442,7 +5442,7 @@
         <v>275</v>
       </c>
       <c r="F58" s="18" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -5458,7 +5458,7 @@
         <v>276</v>
       </c>
       <c r="F59" s="18" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="30.6" x14ac:dyDescent="0.3">
@@ -5474,7 +5474,7 @@
         <v>277</v>
       </c>
       <c r="F60" s="18" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -5490,14 +5490,14 @@
         <v>278</v>
       </c>
       <c r="F61" s="18" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A62" s="40"/>
       <c r="B62" s="47"/>
       <c r="C62" s="32" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="D62" s="12" t="s">
         <v>143</v>
@@ -5506,14 +5506,14 @@
         <v>279</v>
       </c>
       <c r="F62" s="18" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A63" s="40"/>
       <c r="B63" s="47"/>
       <c r="C63" s="32" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="D63" s="12" t="s">
         <v>144</v>
@@ -5522,14 +5522,14 @@
         <v>280</v>
       </c>
       <c r="F63" s="18" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A64" s="40"/>
       <c r="B64" s="47"/>
       <c r="C64" s="32" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="D64" s="12" t="s">
         <v>145</v>
@@ -5538,7 +5538,7 @@
         <v>281</v>
       </c>
       <c r="F64" s="18" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -5547,7 +5547,7 @@
       </c>
       <c r="B65" s="2"/>
       <c r="C65" s="25" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="D65" s="12" t="s">
         <v>147</v>
@@ -5556,7 +5556,7 @@
         <v>282</v>
       </c>
       <c r="F65" s="18" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
@@ -5574,7 +5574,7 @@
         <v>283</v>
       </c>
       <c r="F66" s="18" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
@@ -5590,7 +5590,7 @@
         <v>284</v>
       </c>
       <c r="F67" s="18" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -5606,7 +5606,7 @@
         <v>285</v>
       </c>
       <c r="F68" s="18" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
@@ -5615,7 +5615,7 @@
       </c>
       <c r="B69" s="2"/>
       <c r="C69" s="32" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="D69" s="12" t="s">
         <v>152</v>
@@ -5624,7 +5624,7 @@
         <v>286</v>
       </c>
       <c r="F69" s="18" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -5642,7 +5642,7 @@
         <v>287</v>
       </c>
       <c r="F70" s="18" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -5658,7 +5658,7 @@
         <v>288</v>
       </c>
       <c r="F71" s="18" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -5674,7 +5674,7 @@
         <v>289</v>
       </c>
       <c r="F72" s="18" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -5690,7 +5690,7 @@
         <v>290</v>
       </c>
       <c r="F73" s="18" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -5706,7 +5706,7 @@
         <v>291</v>
       </c>
       <c r="F74" s="18" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -5722,7 +5722,7 @@
         <v>292</v>
       </c>
       <c r="F75" s="18" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -5731,7 +5731,7 @@
       </c>
       <c r="B76" s="2"/>
       <c r="C76" s="25" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="D76" s="12" t="s">
         <v>159</v>
@@ -5740,7 +5740,7 @@
         <v>293</v>
       </c>
       <c r="F76" s="18" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -5755,10 +5755,10 @@
         <v>160</v>
       </c>
       <c r="E77" s="12" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="F77" s="18" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -5771,10 +5771,10 @@
         <v>161</v>
       </c>
       <c r="E78" s="12" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="F78" s="18" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -5787,10 +5787,10 @@
         <v>162</v>
       </c>
       <c r="E79" s="12" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="F79" s="18" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
@@ -5806,14 +5806,14 @@
         <v>294</v>
       </c>
       <c r="F80" s="18" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="40"/>
       <c r="B81" s="47"/>
       <c r="C81" s="32" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="D81" s="12" t="s">
         <v>164</v>
@@ -5822,7 +5822,7 @@
         <v>295</v>
       </c>
       <c r="F81" s="18" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -5835,10 +5835,10 @@
         <v>165</v>
       </c>
       <c r="E82" s="12" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="F82" s="18" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
@@ -5851,10 +5851,10 @@
         <v>166</v>
       </c>
       <c r="E83" s="12" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="F83" s="18" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -5867,10 +5867,10 @@
         <v>167</v>
       </c>
       <c r="E84" s="12" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="F84" s="18" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
@@ -5886,7 +5886,7 @@
         <v>296</v>
       </c>
       <c r="F85" s="18" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -5902,7 +5902,7 @@
         <v>297</v>
       </c>
       <c r="F86" s="18" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -5918,23 +5918,23 @@
         <v>297</v>
       </c>
       <c r="F87" s="18" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A88" s="40"/>
       <c r="B88" s="47"/>
       <c r="C88" s="32" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="D88" s="12" t="s">
         <v>170</v>
       </c>
       <c r="E88" s="12" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="F88" s="18" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
@@ -5943,7 +5943,7 @@
       </c>
       <c r="B89" s="2"/>
       <c r="C89" s="32" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="D89" s="12" t="s">
         <v>171</v>
@@ -5952,14 +5952,14 @@
         <v>298</v>
       </c>
       <c r="F89" s="18" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="17"/>
       <c r="B90" s="2"/>
       <c r="C90" s="32" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="D90" s="12" t="s">
         <v>172</v>
@@ -5968,14 +5968,14 @@
         <v>299</v>
       </c>
       <c r="F90" s="18" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A91" s="17"/>
       <c r="B91" s="2"/>
       <c r="C91" s="32" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="D91" s="12" t="s">
         <v>173</v>
@@ -5984,7 +5984,7 @@
         <v>300</v>
       </c>
       <c r="F91" s="18" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -5993,23 +5993,23 @@
       </c>
       <c r="B92" s="47"/>
       <c r="C92" s="32" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="D92" s="12" t="s">
         <v>174</v>
       </c>
       <c r="E92" s="12" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="F92" s="18" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A93" s="40"/>
       <c r="B93" s="47"/>
       <c r="C93" s="25" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="D93" s="12" t="s">
         <v>175</v>
@@ -6018,14 +6018,14 @@
         <v>301</v>
       </c>
       <c r="F93" s="18" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="40"/>
       <c r="B94" s="47"/>
       <c r="C94" s="25" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="D94" s="12" t="s">
         <v>176</v>
@@ -6034,7 +6034,7 @@
         <v>302</v>
       </c>
       <c r="F94" s="18" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -6050,7 +6050,7 @@
         <v>303</v>
       </c>
       <c r="F95" s="18" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -6066,7 +6066,7 @@
         <v>304</v>
       </c>
       <c r="F96" s="18" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -6082,7 +6082,7 @@
         <v>305</v>
       </c>
       <c r="F97" s="18" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -6091,7 +6091,7 @@
       </c>
       <c r="B98" s="2"/>
       <c r="C98" s="32" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="D98" s="12" t="s">
         <v>180</v>
@@ -6100,7 +6100,7 @@
         <v>306</v>
       </c>
       <c r="F98" s="18" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
@@ -6109,7 +6109,7 @@
       </c>
       <c r="B99" s="32"/>
       <c r="C99" s="32" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="D99" s="12" t="s">
         <v>181</v>
@@ -6118,7 +6118,7 @@
         <v>307</v>
       </c>
       <c r="F99" s="18" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
@@ -6134,30 +6134,30 @@
         <v>308</v>
       </c>
       <c r="F100" s="18" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A101" s="40"/>
       <c r="B101" s="47"/>
       <c r="C101" s="32" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="D101" s="12" t="s">
         <v>183</v>
       </c>
       <c r="E101" s="12" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="F101" s="18" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="40"/>
       <c r="B102" s="47"/>
       <c r="C102" s="32" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="D102" s="12" t="s">
         <v>184</v>
@@ -6166,23 +6166,23 @@
         <v>309</v>
       </c>
       <c r="F102" s="18" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A103" s="40"/>
       <c r="B103" s="47"/>
       <c r="C103" s="32" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="D103" s="12" t="s">
         <v>185</v>
       </c>
       <c r="E103" s="12" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="F103" s="18" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="40.799999999999997" x14ac:dyDescent="0.3">
@@ -6198,7 +6198,7 @@
         <v>310</v>
       </c>
       <c r="F104" s="18" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="40.799999999999997" x14ac:dyDescent="0.3">
@@ -6214,7 +6214,7 @@
         <v>311</v>
       </c>
       <c r="F105" s="18" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="30.6" x14ac:dyDescent="0.3">
@@ -6230,7 +6230,7 @@
         <v>312</v>
       </c>
       <c r="F106" s="18" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="72" x14ac:dyDescent="0.3">
@@ -6248,7 +6248,7 @@
         <v>313</v>
       </c>
       <c r="F107" s="18" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
@@ -6264,7 +6264,7 @@
         <v>314</v>
       </c>
       <c r="F108" s="18" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
@@ -6280,7 +6280,7 @@
         <v>315</v>
       </c>
       <c r="F109" s="18" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
@@ -6298,7 +6298,7 @@
         <v>316</v>
       </c>
       <c r="F110" s="18" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
@@ -6307,7 +6307,7 @@
       </c>
       <c r="B111" s="47"/>
       <c r="C111" s="32" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="D111" s="12" t="s">
         <v>195</v>
@@ -6316,7 +6316,7 @@
         <v>317</v>
       </c>
       <c r="F111" s="18" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
@@ -6334,7 +6334,7 @@
         <v>318</v>
       </c>
       <c r="F112" s="18" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="30.6" x14ac:dyDescent="0.3">
@@ -6350,7 +6350,7 @@
         <v>319</v>
       </c>
       <c r="F113" s="18" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
@@ -6359,7 +6359,7 @@
       </c>
       <c r="B114" s="47"/>
       <c r="C114" s="32" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="D114" s="12" t="s">
         <v>199</v>
@@ -6368,7 +6368,7 @@
         <v>320</v>
       </c>
       <c r="F114" s="18" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
@@ -6386,7 +6386,7 @@
         <v>321</v>
       </c>
       <c r="F115" s="18" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
@@ -6401,10 +6401,10 @@
         <v>201</v>
       </c>
       <c r="E116" s="12" t="s">
-        <v>322</v>
+        <v>1167</v>
       </c>
       <c r="F116" s="18" t="s">
-        <v>411</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
@@ -6417,10 +6417,10 @@
         <v>202</v>
       </c>
       <c r="E117" s="12" t="s">
-        <v>323</v>
+        <v>1168</v>
       </c>
       <c r="F117" s="18" t="s">
-        <v>412</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
@@ -6433,10 +6433,10 @@
         <v>203</v>
       </c>
       <c r="E118" s="12" t="s">
-        <v>324</v>
+        <v>1169</v>
       </c>
       <c r="F118" s="18" t="s">
-        <v>413</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
@@ -6445,16 +6445,16 @@
       </c>
       <c r="B119" s="3"/>
       <c r="C119" s="32" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="D119" s="12" t="s">
         <v>204</v>
       </c>
       <c r="E119" s="12" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="F119" s="18" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
@@ -6467,10 +6467,10 @@
         <v>204</v>
       </c>
       <c r="E120" s="62" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="F120" s="63" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
@@ -6479,16 +6479,16 @@
       </c>
       <c r="B121" s="47"/>
       <c r="C121" s="32" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="D121" s="12" t="s">
         <v>205</v>
       </c>
       <c r="E121" s="12" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F121" s="18" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="30.6" x14ac:dyDescent="0.3">
@@ -6503,26 +6503,26 @@
         <v>206</v>
       </c>
       <c r="E122" s="12" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="F122" s="18" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A123" s="41"/>
       <c r="B123" s="3"/>
       <c r="C123" s="32" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="D123" s="12" t="s">
         <v>207</v>
       </c>
       <c r="E123" s="12" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="F123" s="18" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -6535,10 +6535,10 @@
         <v>207</v>
       </c>
       <c r="E124" s="48" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="F124" s="55" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
@@ -6553,10 +6553,10 @@
         <v>208</v>
       </c>
       <c r="E125" s="12" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="F125" s="18" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -6569,10 +6569,10 @@
         <v>209</v>
       </c>
       <c r="E126" s="12" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="F126" s="18" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -6581,80 +6581,80 @@
       </c>
       <c r="B127" s="47"/>
       <c r="C127" s="32" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="D127" s="12" t="s">
         <v>210</v>
       </c>
       <c r="E127" s="12" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F127" s="18" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A128" s="40"/>
       <c r="B128" s="47"/>
       <c r="C128" s="32" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="D128" s="12" t="s">
         <v>211</v>
       </c>
       <c r="E128" s="12" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="F128" s="18" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A129" s="40"/>
       <c r="B129" s="47"/>
       <c r="C129" s="32" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="D129" s="12" t="s">
         <v>212</v>
       </c>
       <c r="E129" s="12" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F129" s="18" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A130" s="40"/>
       <c r="B130" s="47"/>
       <c r="C130" s="32" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="D130" s="12" t="s">
         <v>213</v>
       </c>
       <c r="E130" s="12" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="F130" s="18" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A131" s="40"/>
       <c r="B131" s="47"/>
       <c r="C131" s="32" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="D131" s="12" t="s">
         <v>214</v>
       </c>
       <c r="E131" s="12" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F131" s="18" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -6667,10 +6667,10 @@
         <v>215</v>
       </c>
       <c r="E132" s="12" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="F132" s="18" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
     </row>
     <row r="133" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -6683,10 +6683,10 @@
         <v>216</v>
       </c>
       <c r="E133" s="12" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F133" s="18" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
     </row>
     <row r="134" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -6699,10 +6699,10 @@
         <v>217</v>
       </c>
       <c r="E134" s="12" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="F134" s="18" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
@@ -6717,10 +6717,10 @@
         <v>218</v>
       </c>
       <c r="E135" s="12" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F135" s="18" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
     </row>
     <row r="136" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -6729,32 +6729,32 @@
       </c>
       <c r="B136" s="32"/>
       <c r="C136" s="32" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="D136" s="12" t="s">
         <v>220</v>
       </c>
       <c r="E136" s="12" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="F136" s="18" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
     </row>
     <row r="137" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A137" s="40"/>
       <c r="B137" s="32"/>
       <c r="C137" s="32" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
       <c r="D137" s="12" t="s">
         <v>221</v>
       </c>
       <c r="E137" s="12" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="F137" s="18" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
     </row>
     <row r="138" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -6767,10 +6767,10 @@
         <v>222</v>
       </c>
       <c r="E138" s="12" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="F138" s="18" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
@@ -6785,10 +6785,10 @@
         <v>224</v>
       </c>
       <c r="E139" s="12" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F139" s="18" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
@@ -6803,10 +6803,10 @@
         <v>225</v>
       </c>
       <c r="E140" s="12" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="F140" s="18" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
@@ -6819,10 +6819,10 @@
         <v>226</v>
       </c>
       <c r="E141" s="12" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F141" s="18" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
@@ -6835,10 +6835,10 @@
         <v>227</v>
       </c>
       <c r="E142" s="12" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="F142" s="18" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
     </row>
     <row r="143" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -6851,10 +6851,10 @@
         <v>228</v>
       </c>
       <c r="E143" s="12" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="F143" s="18" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
     </row>
     <row r="144" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -6867,10 +6867,10 @@
         <v>229</v>
       </c>
       <c r="E144" s="12" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="F144" s="18" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
@@ -6883,26 +6883,26 @@
         <v>230</v>
       </c>
       <c r="E145" s="12" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="F145" s="18" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
     </row>
     <row r="146" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A146" s="40"/>
       <c r="B146" s="47"/>
       <c r="C146" s="32" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="D146" s="12" t="s">
         <v>231</v>
       </c>
       <c r="E146" s="12" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="F146" s="18" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
     </row>
     <row r="147" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -6915,10 +6915,10 @@
         <v>232</v>
       </c>
       <c r="E147" s="12" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="F147" s="18" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
     </row>
     <row r="148" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -6931,10 +6931,10 @@
         <v>233</v>
       </c>
       <c r="E148" s="12" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="F148" s="18" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
     </row>
     <row r="149" spans="1:6" ht="30.6" x14ac:dyDescent="0.3">
@@ -6947,10 +6947,10 @@
         <v>234</v>
       </c>
       <c r="E149" s="12" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="F149" s="18" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
@@ -6965,10 +6965,10 @@
         <v>218</v>
       </c>
       <c r="E150" s="12" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F150" s="18" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
@@ -6983,10 +6983,10 @@
         <v>224</v>
       </c>
       <c r="E151" s="12" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F151" s="18" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
@@ -7001,10 +7001,10 @@
         <v>211</v>
       </c>
       <c r="E152" s="12" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="F152" s="18" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
     </row>
     <row r="153" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -7019,10 +7019,10 @@
         <v>236</v>
       </c>
       <c r="E153" s="12" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="F153" s="18" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
@@ -7035,10 +7035,10 @@
         <v>237</v>
       </c>
       <c r="E154" s="12" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="F154" s="18" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
     </row>
     <row r="155" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -7051,10 +7051,10 @@
         <v>238</v>
       </c>
       <c r="E155" s="12" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="F155" s="18" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
@@ -7069,10 +7069,10 @@
         <v>239</v>
       </c>
       <c r="E156" s="12" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="F156" s="18" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
@@ -7087,10 +7087,10 @@
         <v>240</v>
       </c>
       <c r="E157" s="12" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="F157" s="18" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="158" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -7099,32 +7099,32 @@
       </c>
       <c r="B158" s="47"/>
       <c r="C158" s="32" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="D158" s="12" t="s">
         <v>241</v>
       </c>
       <c r="E158" s="12" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="F158" s="18" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
     </row>
     <row r="159" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A159" s="40"/>
       <c r="B159" s="47"/>
       <c r="C159" s="32" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="D159" s="12" t="s">
         <v>242</v>
       </c>
       <c r="E159" s="12" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="F159" s="18" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
     </row>
     <row r="160" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -7137,26 +7137,26 @@
         <v>243</v>
       </c>
       <c r="E160" s="12" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="F160" s="18" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" s="40"/>
       <c r="B161" s="47"/>
       <c r="C161" s="32" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="D161" s="12" t="s">
         <v>244</v>
       </c>
       <c r="E161" s="12" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="F161" s="18" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
@@ -7171,10 +7171,10 @@
         <v>239</v>
       </c>
       <c r="E162" s="12" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="F162" s="18" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
@@ -7189,10 +7189,10 @@
         <v>245</v>
       </c>
       <c r="E163" s="12" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F163" s="18" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
     </row>
     <row r="164" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -7201,32 +7201,32 @@
       </c>
       <c r="B164" s="47"/>
       <c r="C164" s="32" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
       <c r="D164" s="12" t="s">
         <v>246</v>
       </c>
       <c r="E164" s="12" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="F164" s="18" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
     </row>
     <row r="165" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A165" s="40"/>
       <c r="B165" s="47"/>
       <c r="C165" s="32" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="D165" s="12" t="s">
         <v>247</v>
       </c>
       <c r="E165" s="12" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="F165" s="18" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.3">
@@ -7241,10 +7241,10 @@
         <v>239</v>
       </c>
       <c r="E166" s="12" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="F166" s="18" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
@@ -7259,10 +7259,10 @@
         <v>248</v>
       </c>
       <c r="E167" s="12" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="F167" s="18" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
     </row>
     <row r="168" spans="1:6" ht="30.6" x14ac:dyDescent="0.3">
@@ -7271,16 +7271,16 @@
       </c>
       <c r="B168" s="47"/>
       <c r="C168" s="32" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="D168" s="12" t="s">
         <v>249</v>
       </c>
       <c r="E168" s="12" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="F168" s="18" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.3">
@@ -7295,10 +7295,10 @@
         <v>239</v>
       </c>
       <c r="E169" s="12" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="F169" s="18" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
@@ -7313,10 +7313,10 @@
         <v>250</v>
       </c>
       <c r="E170" s="12" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="F170" s="18" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
@@ -7331,10 +7331,10 @@
         <v>211</v>
       </c>
       <c r="E171" s="12" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="F171" s="18" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
     </row>
     <row r="172" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7343,7 +7343,7 @@
       </c>
       <c r="B172" s="64"/>
       <c r="C172" s="33" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="D172" s="20" t="s">
         <v>251</v>
@@ -7352,7 +7352,7 @@
         <v>299</v>
       </c>
       <c r="F172" s="21" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="173" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -7363,16 +7363,16 @@
         <v>252</v>
       </c>
       <c r="C173" s="31" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="D173" s="27" t="s">
         <v>253</v>
       </c>
       <c r="E173" s="27" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="F173" s="28" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.3">
@@ -7387,10 +7387,10 @@
         <v>254</v>
       </c>
       <c r="E174" s="12" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="F174" s="18" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.3">
@@ -7403,10 +7403,10 @@
         <v>255</v>
       </c>
       <c r="E175" s="12" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="F175" s="18" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.3">
@@ -7419,42 +7419,42 @@
         <v>256</v>
       </c>
       <c r="E176" s="12" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="F176" s="18" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
     </row>
     <row r="177" spans="1:6" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A177" s="40"/>
       <c r="B177" s="47"/>
       <c r="C177" s="32" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="D177" s="12" t="s">
         <v>258</v>
       </c>
       <c r="E177" s="12" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="F177" s="18" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
     </row>
     <row r="178" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A178" s="40"/>
       <c r="B178" s="47"/>
       <c r="C178" s="32" t="s">
-        <v>616</v>
+        <v>608</v>
       </c>
       <c r="D178" s="12" t="s">
         <v>259</v>
       </c>
       <c r="E178" s="12" t="s">
-        <v>452</v>
+        <v>1174</v>
       </c>
       <c r="F178" s="18" t="s">
-        <v>464</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.3">
@@ -7467,10 +7467,10 @@
         <v>260</v>
       </c>
       <c r="E179" s="12" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="F179" s="18" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
@@ -7483,10 +7483,10 @@
         <v>261</v>
       </c>
       <c r="E180" s="12" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="F180" s="18" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
@@ -7499,10 +7499,10 @@
         <v>262</v>
       </c>
       <c r="E181" s="12" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="F181" s="18" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
     </row>
     <row r="182" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -7515,10 +7515,10 @@
         <v>263</v>
       </c>
       <c r="E182" s="12" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="F182" s="18" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
     </row>
     <row r="183" spans="1:6" ht="30.6" x14ac:dyDescent="0.3">
@@ -7531,10 +7531,10 @@
         <v>264</v>
       </c>
       <c r="E183" s="12" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="F183" s="18" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
     </row>
     <row r="184" spans="1:6" ht="30.6" x14ac:dyDescent="0.3">
@@ -7547,10 +7547,10 @@
         <v>265</v>
       </c>
       <c r="E184" s="12" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="F184" s="18" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
@@ -7563,46 +7563,46 @@
         <v>266</v>
       </c>
       <c r="E185" s="12" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="F185" s="18" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
     </row>
     <row r="186" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A186" s="65"/>
       <c r="B186" s="66"/>
       <c r="C186" s="37" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="D186" s="13" t="s">
         <v>267</v>
       </c>
       <c r="E186" s="13" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="F186" s="39" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
     </row>
     <row r="187" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A187" s="53" t="s">
-        <v>668</v>
+        <v>660</v>
       </c>
       <c r="B187" s="58" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="C187" s="26" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="D187" s="67" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="E187" s="67" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
       <c r="F187" s="68" t="s">
-        <v>652</v>
+        <v>644</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.3">
@@ -7614,29 +7614,29 @@
         <v>71</v>
       </c>
       <c r="D188" s="48" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="E188" s="48" t="s">
-        <v>640</v>
+        <v>632</v>
       </c>
       <c r="F188" s="55" t="s">
-        <v>653</v>
+        <v>645</v>
       </c>
     </row>
     <row r="189" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A189" s="41"/>
       <c r="B189" s="3"/>
       <c r="C189" s="25" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="D189" s="48" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
       <c r="E189" s="48" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
       <c r="F189" s="55" t="s">
-        <v>654</v>
+        <v>646</v>
       </c>
     </row>
     <row r="190" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -7646,61 +7646,61 @@
         <v>84</v>
       </c>
       <c r="D190" s="48" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
       <c r="E190" s="48" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
       <c r="F190" s="55" t="s">
-        <v>655</v>
+        <v>647</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" s="40"/>
       <c r="B191" s="47"/>
       <c r="C191" s="25" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="D191" s="48" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="E191" s="48" t="s">
-        <v>643</v>
+        <v>635</v>
       </c>
       <c r="F191" s="55" t="s">
-        <v>656</v>
+        <v>648</v>
       </c>
     </row>
     <row r="192" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A192" s="40"/>
       <c r="B192" s="47"/>
       <c r="C192" s="25" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
       <c r="D192" s="48" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="E192" s="48" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
       <c r="F192" s="55" t="s">
-        <v>657</v>
+        <v>649</v>
       </c>
     </row>
     <row r="193" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A193" s="40"/>
       <c r="B193" s="47"/>
       <c r="C193" s="25" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="D193" s="48" t="s">
-        <v>629</v>
+        <v>621</v>
       </c>
       <c r="E193" s="48" t="s">
-        <v>645</v>
+        <v>637</v>
       </c>
       <c r="F193" s="55" t="s">
-        <v>658</v>
+        <v>650</v>
       </c>
     </row>
     <row r="194" spans="1:6" ht="30.6" x14ac:dyDescent="0.3">
@@ -7712,13 +7712,13 @@
         <v>158</v>
       </c>
       <c r="D194" s="48" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="E194" s="48" t="s">
-        <v>646</v>
+        <v>638</v>
       </c>
       <c r="F194" s="55" t="s">
-        <v>659</v>
+        <v>651</v>
       </c>
     </row>
     <row r="195" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -7730,13 +7730,13 @@
         <v>163</v>
       </c>
       <c r="D195" s="48" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
       <c r="E195" s="48" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
       <c r="F195" s="55" t="s">
-        <v>660</v>
+        <v>652</v>
       </c>
     </row>
     <row r="196" spans="1:6" ht="30.6" x14ac:dyDescent="0.3">
@@ -7746,13 +7746,13 @@
         <v>166</v>
       </c>
       <c r="D196" s="48" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="E196" s="48" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="F196" s="55" t="s">
-        <v>661</v>
+        <v>653</v>
       </c>
     </row>
     <row r="197" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -7762,29 +7762,29 @@
         <v>169</v>
       </c>
       <c r="D197" s="48" t="s">
-        <v>634</v>
+        <v>626</v>
       </c>
       <c r="E197" s="48" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
       <c r="F197" s="55" t="s">
-        <v>662</v>
+        <v>654</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" s="40"/>
       <c r="B198" s="25"/>
       <c r="C198" s="25" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
       <c r="D198" s="48" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="E198" s="48" t="s">
-        <v>650</v>
+        <v>642</v>
       </c>
       <c r="F198" s="55" t="s">
-        <v>663</v>
+        <v>655</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.3">
@@ -7794,13 +7794,13 @@
         <v>197</v>
       </c>
       <c r="D199" s="48" t="s">
-        <v>637</v>
+        <v>629</v>
       </c>
       <c r="E199" s="48" t="s">
-        <v>651</v>
+        <v>643</v>
       </c>
       <c r="F199" s="55" t="s">
-        <v>664</v>
+        <v>656</v>
       </c>
     </row>
     <row r="200" spans="1:6" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -7812,33 +7812,33 @@
         <v>210</v>
       </c>
       <c r="D200" s="74" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="E200" s="74" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
       <c r="F200" s="75" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
     </row>
     <row r="201" spans="1:6" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="53" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
       <c r="B201" s="26" t="s">
-        <v>709</v>
+        <v>701</v>
       </c>
       <c r="C201" s="26">
         <v>39</v>
       </c>
       <c r="D201" s="67" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="E201" s="67" t="s">
-        <v>683</v>
+        <v>675</v>
       </c>
       <c r="F201" s="68" t="s">
-        <v>696</v>
+        <v>688</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.3">
@@ -7848,13 +7848,13 @@
         <v>43</v>
       </c>
       <c r="D202" s="48" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="E202" s="48" t="s">
-        <v>684</v>
+        <v>676</v>
       </c>
       <c r="F202" s="55" t="s">
-        <v>697</v>
+        <v>689</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.3">
@@ -7864,13 +7864,13 @@
         <v>47</v>
       </c>
       <c r="D203" s="48" t="s">
-        <v>672</v>
+        <v>664</v>
       </c>
       <c r="E203" s="48" t="s">
-        <v>685</v>
+        <v>677</v>
       </c>
       <c r="F203" s="55" t="s">
-        <v>698</v>
+        <v>690</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.3">
@@ -7880,13 +7880,13 @@
         <v>74</v>
       </c>
       <c r="D204" s="48" t="s">
-        <v>673</v>
+        <v>665</v>
       </c>
       <c r="E204" s="48" t="s">
-        <v>686</v>
+        <v>678</v>
       </c>
       <c r="F204" s="55" t="s">
-        <v>699</v>
+        <v>691</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.3">
@@ -7896,13 +7896,13 @@
         <v>78</v>
       </c>
       <c r="D205" s="48" t="s">
-        <v>674</v>
+        <v>666</v>
       </c>
       <c r="E205" s="48" t="s">
-        <v>687</v>
+        <v>679</v>
       </c>
       <c r="F205" s="55" t="s">
-        <v>700</v>
+        <v>692</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.3">
@@ -7912,13 +7912,13 @@
         <v>82</v>
       </c>
       <c r="D206" s="48" t="s">
-        <v>673</v>
+        <v>665</v>
       </c>
       <c r="E206" s="48" t="s">
-        <v>686</v>
+        <v>678</v>
       </c>
       <c r="F206" s="55" t="s">
-        <v>699</v>
+        <v>691</v>
       </c>
     </row>
     <row r="207" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -7928,13 +7928,13 @@
         <v>88</v>
       </c>
       <c r="D207" s="48" t="s">
-        <v>675</v>
+        <v>667</v>
       </c>
       <c r="E207" s="48" t="s">
-        <v>688</v>
+        <v>680</v>
       </c>
       <c r="F207" s="55" t="s">
-        <v>701</v>
+        <v>693</v>
       </c>
     </row>
     <row r="208" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -7944,13 +7944,13 @@
         <v>92</v>
       </c>
       <c r="D208" s="48" t="s">
-        <v>676</v>
+        <v>668</v>
       </c>
       <c r="E208" s="48" t="s">
-        <v>689</v>
+        <v>681</v>
       </c>
       <c r="F208" s="55" t="s">
-        <v>702</v>
+        <v>694</v>
       </c>
     </row>
     <row r="209" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -7960,13 +7960,13 @@
         <v>96</v>
       </c>
       <c r="D209" s="48" t="s">
-        <v>677</v>
+        <v>669</v>
       </c>
       <c r="E209" s="48" t="s">
-        <v>690</v>
+        <v>682</v>
       </c>
       <c r="F209" s="55" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.3">
@@ -7978,13 +7978,13 @@
         <v>109</v>
       </c>
       <c r="D210" s="48" t="s">
-        <v>678</v>
+        <v>670</v>
       </c>
       <c r="E210" s="48" t="s">
-        <v>691</v>
+        <v>683</v>
       </c>
       <c r="F210" s="55" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
     </row>
     <row r="211" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -7996,13 +7996,13 @@
         <v>115</v>
       </c>
       <c r="D211" s="48" t="s">
-        <v>679</v>
+        <v>671</v>
       </c>
       <c r="E211" s="48" t="s">
-        <v>692</v>
+        <v>684</v>
       </c>
       <c r="F211" s="55" t="s">
-        <v>705</v>
+        <v>697</v>
       </c>
     </row>
     <row r="212" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -8014,13 +8014,13 @@
         <v>132</v>
       </c>
       <c r="D212" s="48" t="s">
-        <v>680</v>
+        <v>672</v>
       </c>
       <c r="E212" s="48" t="s">
-        <v>693</v>
+        <v>685</v>
       </c>
       <c r="F212" s="55" t="s">
-        <v>706</v>
+        <v>698</v>
       </c>
     </row>
     <row r="213" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -8032,13 +8032,13 @@
         <v>137</v>
       </c>
       <c r="D213" s="48" t="s">
-        <v>681</v>
+        <v>673</v>
       </c>
       <c r="E213" s="48" t="s">
-        <v>694</v>
+        <v>686</v>
       </c>
       <c r="F213" s="55" t="s">
-        <v>707</v>
+        <v>699</v>
       </c>
     </row>
     <row r="214" spans="1:6" ht="21" thickBot="1" x14ac:dyDescent="0.35">
@@ -8050,33 +8050,33 @@
         <v>142</v>
       </c>
       <c r="D214" s="74" t="s">
-        <v>682</v>
+        <v>674</v>
       </c>
       <c r="E214" s="74" t="s">
-        <v>695</v>
+        <v>687</v>
       </c>
       <c r="F214" s="75" t="s">
-        <v>708</v>
+        <v>700</v>
       </c>
     </row>
     <row r="215" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A215" s="78" t="s">
-        <v>710</v>
+        <v>702</v>
       </c>
       <c r="B215" s="26" t="s">
-        <v>667</v>
+        <v>659</v>
       </c>
       <c r="C215" s="26">
         <v>26</v>
       </c>
       <c r="D215" s="67" t="s">
-        <v>711</v>
+        <v>703</v>
       </c>
       <c r="E215" s="67" t="s">
-        <v>727</v>
+        <v>719</v>
       </c>
       <c r="F215" s="68" t="s">
-        <v>740</v>
+        <v>732</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.3">
@@ -8088,13 +8088,13 @@
         <v>39</v>
       </c>
       <c r="D216" s="48" t="s">
-        <v>712</v>
+        <v>704</v>
       </c>
       <c r="E216" s="48" t="s">
-        <v>753</v>
+        <v>745</v>
       </c>
       <c r="F216" s="55" t="s">
-        <v>754</v>
+        <v>746</v>
       </c>
     </row>
     <row r="217" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -8106,13 +8106,13 @@
         <v>55</v>
       </c>
       <c r="D217" s="48" t="s">
-        <v>713</v>
+        <v>705</v>
       </c>
       <c r="E217" s="48" t="s">
-        <v>728</v>
+        <v>720</v>
       </c>
       <c r="F217" s="55" t="s">
-        <v>741</v>
+        <v>733</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.3">
@@ -8124,13 +8124,13 @@
         <v>60</v>
       </c>
       <c r="D218" s="48" t="s">
-        <v>714</v>
+        <v>706</v>
       </c>
       <c r="E218" s="48" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
       <c r="F218" s="55" t="s">
-        <v>742</v>
+        <v>734</v>
       </c>
     </row>
     <row r="219" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -8142,13 +8142,13 @@
         <v>103</v>
       </c>
       <c r="D219" s="48" t="s">
-        <v>715</v>
+        <v>707</v>
       </c>
       <c r="E219" s="48" t="s">
-        <v>730</v>
+        <v>722</v>
       </c>
       <c r="F219" s="55" t="s">
-        <v>743</v>
+        <v>735</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.3">
@@ -8160,29 +8160,29 @@
         <v>115</v>
       </c>
       <c r="D220" s="48" t="s">
-        <v>716</v>
+        <v>708</v>
       </c>
       <c r="E220" s="48" t="s">
-        <v>731</v>
+        <v>723</v>
       </c>
       <c r="F220" s="55" t="s">
-        <v>744</v>
+        <v>736</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221" s="40"/>
       <c r="B221" s="47"/>
       <c r="C221" s="25" t="s">
-        <v>718</v>
+        <v>710</v>
       </c>
       <c r="D221" s="48" t="s">
-        <v>717</v>
+        <v>709</v>
       </c>
       <c r="E221" s="48" t="s">
-        <v>732</v>
+        <v>724</v>
       </c>
       <c r="F221" s="55" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
     </row>
     <row r="222" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -8192,13 +8192,13 @@
         <v>182</v>
       </c>
       <c r="D222" s="48" t="s">
-        <v>719</v>
+        <v>711</v>
       </c>
       <c r="E222" s="48" t="s">
-        <v>733</v>
+        <v>725</v>
       </c>
       <c r="F222" s="55" t="s">
-        <v>746</v>
+        <v>738</v>
       </c>
     </row>
     <row r="223" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -8208,13 +8208,13 @@
         <v>186</v>
       </c>
       <c r="D223" s="48" t="s">
-        <v>720</v>
+        <v>712</v>
       </c>
       <c r="E223" s="48" t="s">
-        <v>734</v>
+        <v>726</v>
       </c>
       <c r="F223" s="55" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
     </row>
     <row r="224" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -8224,13 +8224,13 @@
         <v>190</v>
       </c>
       <c r="D224" s="48" t="s">
-        <v>721</v>
+        <v>713</v>
       </c>
       <c r="E224" s="48" t="s">
-        <v>735</v>
+        <v>727</v>
       </c>
       <c r="F224" s="55" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
     </row>
     <row r="225" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -8240,13 +8240,13 @@
         <v>202</v>
       </c>
       <c r="D225" s="48" t="s">
-        <v>722</v>
+        <v>714</v>
       </c>
       <c r="E225" s="48" t="s">
-        <v>736</v>
+        <v>728</v>
       </c>
       <c r="F225" s="55" t="s">
-        <v>749</v>
+        <v>741</v>
       </c>
     </row>
     <row r="226" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -8256,13 +8256,13 @@
         <v>206</v>
       </c>
       <c r="D226" s="48" t="s">
-        <v>723</v>
+        <v>715</v>
       </c>
       <c r="E226" s="48" t="s">
-        <v>737</v>
+        <v>729</v>
       </c>
       <c r="F226" s="55" t="s">
-        <v>750</v>
+        <v>742</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.3">
@@ -8272,49 +8272,49 @@
         <v>217</v>
       </c>
       <c r="D227" s="48" t="s">
-        <v>724</v>
+        <v>716</v>
       </c>
       <c r="E227" s="48" t="s">
-        <v>738</v>
+        <v>730</v>
       </c>
       <c r="F227" s="55" t="s">
-        <v>751</v>
+        <v>743</v>
       </c>
     </row>
     <row r="228" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A228" s="59"/>
       <c r="B228" s="60"/>
       <c r="C228" s="29" t="s">
-        <v>726</v>
+        <v>718</v>
       </c>
       <c r="D228" s="69" t="s">
-        <v>725</v>
+        <v>717</v>
       </c>
       <c r="E228" s="69" t="s">
-        <v>739</v>
+        <v>731</v>
       </c>
       <c r="F228" s="70" t="s">
-        <v>752</v>
+        <v>744</v>
       </c>
     </row>
     <row r="229" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A229" s="72" t="s">
-        <v>756</v>
+        <v>748</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>755</v>
+        <v>747</v>
       </c>
       <c r="C229" s="1">
         <v>24</v>
       </c>
       <c r="D229" s="4" t="s">
-        <v>757</v>
+        <v>749</v>
       </c>
       <c r="E229" s="4" t="s">
-        <v>921</v>
+        <v>913</v>
       </c>
       <c r="F229" s="4" t="s">
-        <v>1045</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.3">
@@ -8323,13 +8323,13 @@
         <v>28</v>
       </c>
       <c r="D230" s="4" t="s">
-        <v>758</v>
+        <v>750</v>
       </c>
       <c r="E230" s="4" t="s">
-        <v>922</v>
+        <v>914</v>
       </c>
       <c r="F230" s="4" t="s">
-        <v>1046</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.3">
@@ -8338,13 +8338,13 @@
         <v>32</v>
       </c>
       <c r="D231" s="4" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="E231" s="4" t="s">
-        <v>923</v>
+        <v>915</v>
       </c>
       <c r="F231" s="4" t="s">
-        <v>1047</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="232" spans="1:6" ht="30.6" x14ac:dyDescent="0.3">
@@ -8353,13 +8353,13 @@
         <v>50</v>
       </c>
       <c r="D232" s="4" t="s">
-        <v>760</v>
+        <v>752</v>
       </c>
       <c r="E232" s="4" t="s">
-        <v>924</v>
+        <v>916</v>
       </c>
       <c r="F232" s="4" t="s">
-        <v>1048</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="233" spans="1:6" ht="30.6" x14ac:dyDescent="0.3">
@@ -8368,108 +8368,108 @@
         <v>54</v>
       </c>
       <c r="D233" s="4" t="s">
-        <v>760</v>
+        <v>752</v>
       </c>
       <c r="E233" s="4" t="s">
-        <v>925</v>
+        <v>917</v>
       </c>
       <c r="F233" s="4" t="s">
-        <v>1049</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="234" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A234" s="77"/>
       <c r="B234" s="2"/>
       <c r="C234" s="1" t="s">
-        <v>763</v>
+        <v>755</v>
       </c>
       <c r="D234" s="4" t="s">
-        <v>761</v>
+        <v>753</v>
       </c>
       <c r="E234" s="4" t="s">
-        <v>926</v>
+        <v>918</v>
       </c>
       <c r="F234" s="4" t="s">
-        <v>1050</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A235" s="77"/>
       <c r="B235" s="2"/>
       <c r="C235" s="1" t="s">
-        <v>764</v>
+        <v>756</v>
       </c>
       <c r="D235" s="4" t="s">
-        <v>762</v>
+        <v>754</v>
       </c>
       <c r="E235" s="4" t="s">
-        <v>927</v>
+        <v>919</v>
       </c>
       <c r="F235" s="4" t="s">
-        <v>1051</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A236" s="40"/>
       <c r="B236" s="47"/>
       <c r="C236" s="1" t="s">
-        <v>766</v>
+        <v>758</v>
       </c>
       <c r="D236" s="4" t="s">
-        <v>765</v>
+        <v>757</v>
       </c>
       <c r="E236" s="4" t="s">
-        <v>928</v>
+        <v>920</v>
       </c>
       <c r="F236" s="4" t="s">
-        <v>1052</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="237" spans="1:6" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="40"/>
       <c r="B237" s="47"/>
       <c r="C237" s="1" t="s">
-        <v>768</v>
+        <v>760</v>
       </c>
       <c r="D237" s="4" t="s">
-        <v>767</v>
+        <v>759</v>
       </c>
       <c r="E237" s="4" t="s">
-        <v>929</v>
+        <v>921</v>
       </c>
       <c r="F237" s="4" t="s">
-        <v>1053</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="238" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A238" s="40"/>
       <c r="B238" s="47"/>
       <c r="C238" s="1" t="s">
-        <v>770</v>
+        <v>762</v>
       </c>
       <c r="D238" s="4" t="s">
-        <v>769</v>
+        <v>761</v>
       </c>
       <c r="E238" s="4" t="s">
-        <v>930</v>
+        <v>922</v>
       </c>
       <c r="F238" s="4" t="s">
-        <v>1054</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="239" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A239" s="40"/>
       <c r="C239" s="1" t="s">
-        <v>772</v>
+        <v>764</v>
       </c>
       <c r="D239" s="4" t="s">
-        <v>771</v>
+        <v>763</v>
       </c>
       <c r="E239" s="4" t="s">
-        <v>931</v>
+        <v>923</v>
       </c>
       <c r="F239" s="4" t="s">
-        <v>1055</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="240" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -8478,28 +8478,28 @@
         <v>153</v>
       </c>
       <c r="D240" s="4" t="s">
-        <v>771</v>
+        <v>763</v>
       </c>
       <c r="E240" s="4" t="s">
-        <v>932</v>
+        <v>924</v>
       </c>
       <c r="F240" s="4" t="s">
-        <v>1056</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="241" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A241" s="40"/>
       <c r="C241" s="1" t="s">
-        <v>774</v>
+        <v>766</v>
       </c>
       <c r="D241" s="4" t="s">
-        <v>773</v>
+        <v>765</v>
       </c>
       <c r="E241" s="4" t="s">
-        <v>933</v>
+        <v>925</v>
       </c>
       <c r="F241" s="4" t="s">
-        <v>1057</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="242" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -8508,93 +8508,93 @@
         <v>167</v>
       </c>
       <c r="D242" s="4" t="s">
-        <v>773</v>
+        <v>765</v>
       </c>
       <c r="E242" s="4" t="s">
-        <v>933</v>
+        <v>925</v>
       </c>
       <c r="F242" s="4" t="s">
-        <v>1057</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="243" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A243" s="40"/>
       <c r="B243" s="47"/>
       <c r="C243" s="1" t="s">
-        <v>776</v>
+        <v>768</v>
       </c>
       <c r="D243" s="4" t="s">
-        <v>775</v>
+        <v>767</v>
       </c>
       <c r="E243" s="4" t="s">
-        <v>1170</v>
+        <v>1162</v>
       </c>
       <c r="F243" s="4" t="s">
-        <v>1171</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="244" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A244" s="40"/>
       <c r="B244" s="47"/>
       <c r="C244" s="1" t="s">
-        <v>778</v>
+        <v>770</v>
       </c>
       <c r="D244" s="4" t="s">
-        <v>777</v>
+        <v>769</v>
       </c>
       <c r="E244" s="4" t="s">
-        <v>934</v>
+        <v>926</v>
       </c>
       <c r="F244" s="4" t="s">
-        <v>1058</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="245" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A245" s="40"/>
       <c r="B245" s="47"/>
       <c r="C245" s="1" t="s">
-        <v>780</v>
+        <v>772</v>
       </c>
       <c r="D245" s="4" t="s">
-        <v>779</v>
+        <v>771</v>
       </c>
       <c r="E245" s="4" t="s">
-        <v>935</v>
+        <v>927</v>
       </c>
       <c r="F245" s="4" t="s">
-        <v>1059</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="246" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A246" s="40"/>
       <c r="B246" s="47"/>
       <c r="C246" s="1" t="s">
-        <v>782</v>
+        <v>774</v>
       </c>
       <c r="D246" s="4" t="s">
-        <v>781</v>
+        <v>773</v>
       </c>
       <c r="E246" s="4" t="s">
-        <v>936</v>
+        <v>928</v>
       </c>
       <c r="F246" s="4" t="s">
-        <v>1060</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="247" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A247" s="40"/>
       <c r="B247" s="47"/>
       <c r="C247" s="1" t="s">
-        <v>784</v>
+        <v>776</v>
       </c>
       <c r="D247" s="4" t="s">
-        <v>783</v>
+        <v>775</v>
       </c>
       <c r="E247" s="4" t="s">
-        <v>937</v>
+        <v>929</v>
       </c>
       <c r="F247" s="4" t="s">
-        <v>1061</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="248" spans="1:6" ht="30.6" x14ac:dyDescent="0.3">
@@ -8603,28 +8603,28 @@
         <v>245</v>
       </c>
       <c r="D248" s="4" t="s">
-        <v>785</v>
+        <v>777</v>
       </c>
       <c r="E248" s="4" t="s">
-        <v>938</v>
+        <v>930</v>
       </c>
       <c r="F248" s="4" t="s">
-        <v>1062</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="249" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A249" s="40"/>
       <c r="C249" s="1" t="s">
-        <v>787</v>
+        <v>779</v>
       </c>
       <c r="D249" s="4" t="s">
-        <v>786</v>
+        <v>778</v>
       </c>
       <c r="E249" s="4" t="s">
-        <v>939</v>
+        <v>931</v>
       </c>
       <c r="F249" s="4" t="s">
-        <v>1063</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="250" spans="1:6" ht="30.6" x14ac:dyDescent="0.3">
@@ -8633,13 +8633,13 @@
         <v>263</v>
       </c>
       <c r="D250" s="4" t="s">
-        <v>788</v>
+        <v>780</v>
       </c>
       <c r="E250" s="4" t="s">
-        <v>940</v>
+        <v>932</v>
       </c>
       <c r="F250" s="4" t="s">
-        <v>1064</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="251" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -8648,13 +8648,13 @@
         <v>279</v>
       </c>
       <c r="D251" s="4" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
       <c r="E251" s="4" t="s">
-        <v>941</v>
+        <v>933</v>
       </c>
       <c r="F251" s="4" t="s">
-        <v>1065</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="252" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -8663,13 +8663,13 @@
         <v>283</v>
       </c>
       <c r="D252" s="4" t="s">
-        <v>790</v>
+        <v>782</v>
       </c>
       <c r="E252" s="4" t="s">
-        <v>942</v>
+        <v>934</v>
       </c>
       <c r="F252" s="4" t="s">
-        <v>1066</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="253" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -8678,13 +8678,13 @@
         <v>287</v>
       </c>
       <c r="D253" s="4" t="s">
-        <v>791</v>
+        <v>783</v>
       </c>
       <c r="E253" s="4" t="s">
-        <v>943</v>
+        <v>935</v>
       </c>
       <c r="F253" s="4" t="s">
-        <v>1067</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="254" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -8693,13 +8693,13 @@
         <v>295</v>
       </c>
       <c r="D254" s="4" t="s">
-        <v>792</v>
+        <v>784</v>
       </c>
       <c r="E254" s="4" t="s">
-        <v>944</v>
+        <v>936</v>
       </c>
       <c r="F254" s="4" t="s">
-        <v>1068</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="255" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -8708,13 +8708,13 @@
         <v>299</v>
       </c>
       <c r="D255" s="4" t="s">
-        <v>793</v>
+        <v>785</v>
       </c>
       <c r="E255" s="4" t="s">
-        <v>945</v>
+        <v>937</v>
       </c>
       <c r="F255" s="4" t="s">
-        <v>1069</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="256" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -8723,13 +8723,13 @@
         <v>303</v>
       </c>
       <c r="D256" s="4" t="s">
-        <v>794</v>
+        <v>786</v>
       </c>
       <c r="E256" s="4" t="s">
-        <v>946</v>
+        <v>938</v>
       </c>
       <c r="F256" s="4" t="s">
-        <v>1070</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="257" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -8738,13 +8738,13 @@
         <v>309</v>
       </c>
       <c r="D257" s="4" t="s">
-        <v>795</v>
+        <v>787</v>
       </c>
       <c r="E257" s="4" t="s">
-        <v>947</v>
+        <v>939</v>
       </c>
       <c r="F257" s="4" t="s">
-        <v>1071</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="258" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -8753,13 +8753,13 @@
         <v>313</v>
       </c>
       <c r="D258" s="4" t="s">
-        <v>796</v>
+        <v>788</v>
       </c>
       <c r="E258" s="4" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="F258" s="4" t="s">
-        <v>1072</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="259" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -8768,13 +8768,13 @@
         <v>317</v>
       </c>
       <c r="D259" s="4" t="s">
-        <v>797</v>
+        <v>789</v>
       </c>
       <c r="E259" s="4" t="s">
-        <v>949</v>
+        <v>941</v>
       </c>
       <c r="F259" s="4" t="s">
-        <v>1073</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="260" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -8783,13 +8783,13 @@
         <v>338</v>
       </c>
       <c r="D260" s="4" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="E260" s="4" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="F260" s="4" t="s">
-        <v>1074</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="261" spans="1:6" ht="30.6" x14ac:dyDescent="0.3">
@@ -8798,13 +8798,13 @@
         <v>342</v>
       </c>
       <c r="D261" s="4" t="s">
-        <v>799</v>
+        <v>791</v>
       </c>
       <c r="E261" s="4" t="s">
-        <v>951</v>
+        <v>943</v>
       </c>
       <c r="F261" s="4" t="s">
-        <v>1075</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="262" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -8813,29 +8813,29 @@
         <v>346</v>
       </c>
       <c r="D262" s="4" t="s">
-        <v>800</v>
+        <v>792</v>
       </c>
       <c r="E262" s="4" t="s">
-        <v>952</v>
+        <v>944</v>
       </c>
       <c r="F262" s="4" t="s">
-        <v>1076</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="263" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" s="76"/>
       <c r="B263" s="6"/>
       <c r="C263" s="1" t="s">
-        <v>802</v>
+        <v>794</v>
       </c>
       <c r="D263" s="4" t="s">
-        <v>801</v>
+        <v>793</v>
       </c>
       <c r="E263" s="4" t="s">
-        <v>953</v>
+        <v>945</v>
       </c>
       <c r="F263" s="4" t="s">
-        <v>1077</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.3">
@@ -8844,13 +8844,13 @@
         <v>364</v>
       </c>
       <c r="D264" s="4" t="s">
-        <v>803</v>
+        <v>795</v>
       </c>
       <c r="E264" s="4" t="s">
-        <v>954</v>
+        <v>946</v>
       </c>
       <c r="F264" s="4" t="s">
-        <v>1078</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.3">
@@ -8859,13 +8859,13 @@
         <v>368</v>
       </c>
       <c r="D265" s="4" t="s">
-        <v>803</v>
+        <v>795</v>
       </c>
       <c r="E265" s="4" t="s">
-        <v>955</v>
+        <v>947</v>
       </c>
       <c r="F265" s="4" t="s">
-        <v>1079</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="266" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -8874,13 +8874,13 @@
         <v>376</v>
       </c>
       <c r="D266" s="4" t="s">
-        <v>804</v>
+        <v>796</v>
       </c>
       <c r="E266" s="4" t="s">
-        <v>956</v>
+        <v>948</v>
       </c>
       <c r="F266" s="4" t="s">
-        <v>1080</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="267" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -8889,13 +8889,13 @@
         <v>380</v>
       </c>
       <c r="D267" s="4" t="s">
-        <v>805</v>
+        <v>797</v>
       </c>
       <c r="E267" s="4" t="s">
-        <v>957</v>
+        <v>949</v>
       </c>
       <c r="F267" s="4" t="s">
-        <v>1081</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="268" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -8904,108 +8904,108 @@
         <v>384</v>
       </c>
       <c r="D268" s="4" t="s">
-        <v>806</v>
+        <v>798</v>
       </c>
       <c r="E268" s="4" t="s">
-        <v>958</v>
+        <v>950</v>
       </c>
       <c r="F268" s="4" t="s">
-        <v>1082</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="269" spans="1:6" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A269" s="40"/>
       <c r="B269" s="47"/>
       <c r="C269" s="1" t="s">
-        <v>808</v>
+        <v>800</v>
       </c>
       <c r="D269" s="4" t="s">
-        <v>807</v>
+        <v>799</v>
       </c>
       <c r="E269" s="4" t="s">
-        <v>959</v>
+        <v>951</v>
       </c>
       <c r="F269" s="4" t="s">
-        <v>1083</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A270" s="40"/>
       <c r="B270" s="47"/>
       <c r="C270" s="1" t="s">
-        <v>810</v>
+        <v>802</v>
       </c>
       <c r="D270" s="4" t="s">
-        <v>809</v>
+        <v>801</v>
       </c>
       <c r="E270" s="4" t="s">
-        <v>960</v>
+        <v>952</v>
       </c>
       <c r="F270" s="4" t="s">
-        <v>1084</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="271" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A271" s="40"/>
       <c r="B271" s="47"/>
       <c r="C271" s="1" t="s">
-        <v>812</v>
+        <v>804</v>
       </c>
       <c r="D271" s="4" t="s">
-        <v>811</v>
+        <v>803</v>
       </c>
       <c r="E271" s="4" t="s">
-        <v>961</v>
+        <v>953</v>
       </c>
       <c r="F271" s="4" t="s">
-        <v>1085</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="272" spans="1:6" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A272" s="40"/>
       <c r="B272" s="47"/>
       <c r="C272" s="1" t="s">
-        <v>814</v>
+        <v>806</v>
       </c>
       <c r="D272" s="4" t="s">
-        <v>813</v>
+        <v>805</v>
       </c>
       <c r="E272" s="4" t="s">
-        <v>962</v>
+        <v>954</v>
       </c>
       <c r="F272" s="4" t="s">
-        <v>1086</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="273" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A273" s="40"/>
       <c r="B273" s="47"/>
       <c r="C273" s="1" t="s">
-        <v>816</v>
+        <v>808</v>
       </c>
       <c r="D273" s="4" t="s">
-        <v>815</v>
+        <v>807</v>
       </c>
       <c r="E273" s="4" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="F273" s="4" t="s">
-        <v>1087</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="274" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A274" s="40"/>
       <c r="C274" s="1" t="s">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="D274" s="4" t="s">
-        <v>817</v>
+        <v>809</v>
       </c>
       <c r="E274" s="4" t="s">
-        <v>964</v>
+        <v>956</v>
       </c>
       <c r="F274" s="4" t="s">
-        <v>1088</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="275" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -9014,28 +9014,28 @@
         <v>485</v>
       </c>
       <c r="D275" s="4" t="s">
-        <v>817</v>
+        <v>809</v>
       </c>
       <c r="E275" s="4" t="s">
-        <v>965</v>
+        <v>957</v>
       </c>
       <c r="F275" s="4" t="s">
-        <v>1089</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A276" s="40"/>
       <c r="C276" s="1" t="s">
-        <v>820</v>
+        <v>812</v>
       </c>
       <c r="D276" s="4" t="s">
-        <v>819</v>
+        <v>811</v>
       </c>
       <c r="E276" s="4" t="s">
-        <v>966</v>
+        <v>958</v>
       </c>
       <c r="F276" s="4" t="s">
-        <v>1090</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.3">
@@ -9044,29 +9044,29 @@
         <v>505</v>
       </c>
       <c r="D277" s="4" t="s">
-        <v>821</v>
+        <v>813</v>
       </c>
       <c r="E277" s="4" t="s">
-        <v>967</v>
+        <v>959</v>
       </c>
       <c r="F277" s="4" t="s">
-        <v>1091</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="278" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A278" s="40"/>
       <c r="B278" s="47"/>
       <c r="C278" s="1" t="s">
-        <v>823</v>
+        <v>815</v>
       </c>
       <c r="D278" s="4" t="s">
-        <v>822</v>
+        <v>814</v>
       </c>
       <c r="E278" s="4" t="s">
-        <v>968</v>
+        <v>960</v>
       </c>
       <c r="F278" s="4" t="s">
-        <v>1092</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="279" spans="1:6" ht="30.6" x14ac:dyDescent="0.3">
@@ -9076,13 +9076,13 @@
         <v>532</v>
       </c>
       <c r="D279" s="4" t="s">
-        <v>824</v>
+        <v>816</v>
       </c>
       <c r="E279" s="4" t="s">
-        <v>969</v>
+        <v>961</v>
       </c>
       <c r="F279" s="4" t="s">
-        <v>1093</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="280" spans="1:6" ht="30.6" x14ac:dyDescent="0.3">
@@ -9092,28 +9092,28 @@
         <v>536</v>
       </c>
       <c r="D280" s="4" t="s">
-        <v>824</v>
+        <v>816</v>
       </c>
       <c r="E280" s="4" t="s">
-        <v>970</v>
+        <v>962</v>
       </c>
       <c r="F280" s="4" t="s">
-        <v>1094</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="281" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A281" s="40"/>
       <c r="C281" s="1" t="s">
-        <v>827</v>
+        <v>819</v>
       </c>
       <c r="D281" s="4" t="s">
-        <v>825</v>
+        <v>817</v>
       </c>
       <c r="E281" s="4" t="s">
-        <v>971</v>
+        <v>963</v>
       </c>
       <c r="F281" s="4" t="s">
-        <v>1095</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="282" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -9122,29 +9122,29 @@
         <v>550</v>
       </c>
       <c r="D282" s="4" t="s">
-        <v>826</v>
+        <v>818</v>
       </c>
       <c r="E282" s="4" t="s">
-        <v>972</v>
+        <v>964</v>
       </c>
       <c r="F282" s="4" t="s">
-        <v>1096</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="283" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A283" s="40"/>
       <c r="B283" s="47"/>
       <c r="C283" s="1" t="s">
-        <v>829</v>
+        <v>821</v>
       </c>
       <c r="D283" s="4" t="s">
-        <v>828</v>
+        <v>820</v>
       </c>
       <c r="E283" s="4" t="s">
-        <v>973</v>
+        <v>965</v>
       </c>
       <c r="F283" s="4" t="s">
-        <v>1097</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="284" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -9153,13 +9153,13 @@
         <v>584</v>
       </c>
       <c r="D284" s="4" t="s">
-        <v>830</v>
+        <v>822</v>
       </c>
       <c r="E284" s="4" t="s">
-        <v>974</v>
+        <v>966</v>
       </c>
       <c r="F284" s="4" t="s">
-        <v>1098</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="285" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -9168,13 +9168,13 @@
         <v>588</v>
       </c>
       <c r="D285" s="4" t="s">
-        <v>831</v>
+        <v>823</v>
       </c>
       <c r="E285" s="4" t="s">
-        <v>975</v>
+        <v>967</v>
       </c>
       <c r="F285" s="4" t="s">
-        <v>1099</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="286" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -9183,13 +9183,13 @@
         <v>592</v>
       </c>
       <c r="D286" s="4" t="s">
-        <v>832</v>
+        <v>824</v>
       </c>
       <c r="E286" s="4" t="s">
-        <v>976</v>
+        <v>968</v>
       </c>
       <c r="F286" s="4" t="s">
-        <v>1100</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="287" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -9198,13 +9198,13 @@
         <v>598</v>
       </c>
       <c r="D287" s="4" t="s">
-        <v>833</v>
+        <v>825</v>
       </c>
       <c r="E287" s="4" t="s">
-        <v>977</v>
+        <v>969</v>
       </c>
       <c r="F287" s="4" t="s">
-        <v>1101</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="288" spans="1:6" ht="30.6" x14ac:dyDescent="0.3">
@@ -9213,13 +9213,13 @@
         <v>602</v>
       </c>
       <c r="D288" s="4" t="s">
-        <v>834</v>
+        <v>826</v>
       </c>
       <c r="E288" s="4" t="s">
-        <v>978</v>
+        <v>970</v>
       </c>
       <c r="F288" s="4" t="s">
-        <v>1102</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="289" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -9228,13 +9228,13 @@
         <v>606</v>
       </c>
       <c r="D289" s="4" t="s">
-        <v>835</v>
+        <v>827</v>
       </c>
       <c r="E289" s="4" t="s">
-        <v>979</v>
+        <v>971</v>
       </c>
       <c r="F289" s="4" t="s">
-        <v>1103</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="290" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
@@ -9243,13 +9243,13 @@
         <v>612</v>
       </c>
       <c r="D290" s="4" t="s">
-        <v>836</v>
+        <v>828</v>
       </c>
       <c r="E290" s="4" t="s">
-        <v>980</v>
+        <v>972</v>
       </c>
       <c r="F290" s="4" t="s">
-        <v>1104</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.3">
@@ -9258,13 +9258,13 @@
         <v>616</v>
       </c>
       <c r="D291" s="4" t="s">
-        <v>837</v>
+        <v>829</v>
       </c>
       <c r="E291" s="4" t="s">
-        <v>981</v>
+        <v>973</v>
       </c>
       <c r="F291" s="4" t="s">
-        <v>1105</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="292" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -9273,61 +9273,61 @@
         <v>620</v>
       </c>
       <c r="D292" s="4" t="s">
-        <v>838</v>
+        <v>830</v>
       </c>
       <c r="E292" s="4" t="s">
-        <v>982</v>
+        <v>974</v>
       </c>
       <c r="F292" s="4" t="s">
-        <v>1106</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="293" spans="1:6" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A293" s="76"/>
       <c r="B293" s="6"/>
       <c r="C293" s="1" t="s">
-        <v>840</v>
+        <v>832</v>
       </c>
       <c r="D293" s="4" t="s">
-        <v>839</v>
+        <v>831</v>
       </c>
       <c r="E293" s="4" t="s">
-        <v>983</v>
+        <v>975</v>
       </c>
       <c r="F293" s="4" t="s">
-        <v>1107</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="294" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A294" s="76"/>
       <c r="B294" s="6"/>
       <c r="C294" s="1" t="s">
-        <v>842</v>
+        <v>834</v>
       </c>
       <c r="D294" s="4" t="s">
-        <v>841</v>
+        <v>833</v>
       </c>
       <c r="E294" s="4" t="s">
-        <v>984</v>
+        <v>976</v>
       </c>
       <c r="F294" s="4" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="295" spans="1:6" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A295" s="76"/>
       <c r="B295" s="6"/>
       <c r="C295" s="1" t="s">
-        <v>844</v>
+        <v>836</v>
       </c>
       <c r="D295" s="4" t="s">
-        <v>843</v>
+        <v>835</v>
       </c>
       <c r="E295" s="4" t="s">
-        <v>985</v>
+        <v>977</v>
       </c>
       <c r="F295" s="4" t="s">
-        <v>1109</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.3">
@@ -9336,13 +9336,13 @@
         <v>674</v>
       </c>
       <c r="D296" s="4" t="s">
-        <v>845</v>
+        <v>837</v>
       </c>
       <c r="E296" s="4" t="s">
-        <v>986</v>
+        <v>978</v>
       </c>
       <c r="F296" s="4" t="s">
-        <v>1110</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.3">
@@ -9351,13 +9351,13 @@
         <v>679</v>
       </c>
       <c r="D297" s="4" t="s">
-        <v>846</v>
+        <v>838</v>
       </c>
       <c r="E297" s="4" t="s">
-        <v>987</v>
+        <v>979</v>
       </c>
       <c r="F297" s="4" t="s">
-        <v>1111</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.3">
@@ -9366,13 +9366,13 @@
         <v>691</v>
       </c>
       <c r="D298" s="4" t="s">
-        <v>847</v>
+        <v>839</v>
       </c>
       <c r="E298" s="4" t="s">
-        <v>988</v>
+        <v>980</v>
       </c>
       <c r="F298" s="4" t="s">
-        <v>1112</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.3">
@@ -9381,13 +9381,13 @@
         <v>695</v>
       </c>
       <c r="D299" s="4" t="s">
-        <v>848</v>
+        <v>840</v>
       </c>
       <c r="E299" s="4" t="s">
-        <v>989</v>
+        <v>981</v>
       </c>
       <c r="F299" s="4" t="s">
-        <v>1113</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.3">
@@ -9396,29 +9396,29 @@
         <v>699</v>
       </c>
       <c r="D300" s="4" t="s">
-        <v>849</v>
+        <v>841</v>
       </c>
       <c r="E300" s="4" t="s">
-        <v>990</v>
+        <v>982</v>
       </c>
       <c r="F300" s="4" t="s">
-        <v>1114</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="301" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A301" s="40"/>
       <c r="B301" s="47"/>
       <c r="C301" s="1" t="s">
-        <v>851</v>
+        <v>843</v>
       </c>
       <c r="D301" s="4" t="s">
-        <v>850</v>
+        <v>842</v>
       </c>
       <c r="E301" s="4" t="s">
-        <v>991</v>
+        <v>983</v>
       </c>
       <c r="F301" s="4" t="s">
-        <v>1115</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="302" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -9427,13 +9427,13 @@
         <v>722</v>
       </c>
       <c r="D302" s="4" t="s">
-        <v>852</v>
+        <v>844</v>
       </c>
       <c r="E302" s="4" t="s">
-        <v>992</v>
+        <v>984</v>
       </c>
       <c r="F302" s="4" t="s">
-        <v>1116</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="303" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -9442,28 +9442,28 @@
         <v>726</v>
       </c>
       <c r="D303" s="4" t="s">
-        <v>853</v>
+        <v>845</v>
       </c>
       <c r="E303" s="4" t="s">
-        <v>993</v>
+        <v>985</v>
       </c>
       <c r="F303" s="4" t="s">
-        <v>1117</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="304" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A304" s="40"/>
       <c r="C304" s="1" t="s">
-        <v>855</v>
+        <v>847</v>
       </c>
       <c r="D304" s="4" t="s">
-        <v>854</v>
+        <v>846</v>
       </c>
       <c r="E304" s="4" t="s">
-        <v>994</v>
+        <v>986</v>
       </c>
       <c r="F304" s="4" t="s">
-        <v>1118</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="305" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -9472,13 +9472,13 @@
         <v>740</v>
       </c>
       <c r="D305" s="4" t="s">
-        <v>854</v>
+        <v>846</v>
       </c>
       <c r="E305" s="4" t="s">
-        <v>995</v>
+        <v>987</v>
       </c>
       <c r="F305" s="4" t="s">
-        <v>1119</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="306" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -9487,13 +9487,13 @@
         <v>746</v>
       </c>
       <c r="D306" s="4" t="s">
-        <v>856</v>
+        <v>848</v>
       </c>
       <c r="E306" s="4" t="s">
-        <v>996</v>
+        <v>988</v>
       </c>
       <c r="F306" s="4" t="s">
-        <v>1120</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="307" spans="1:6" ht="30.6" x14ac:dyDescent="0.3">
@@ -9502,13 +9502,13 @@
         <v>750</v>
       </c>
       <c r="D307" s="4" t="s">
-        <v>857</v>
+        <v>849</v>
       </c>
       <c r="E307" s="4" t="s">
-        <v>1173</v>
+        <v>1165</v>
       </c>
       <c r="F307" s="4" t="s">
-        <v>1174</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="308" spans="1:6" ht="30.6" x14ac:dyDescent="0.3">
@@ -9517,13 +9517,13 @@
         <v>756</v>
       </c>
       <c r="D308" s="4" t="s">
-        <v>858</v>
+        <v>850</v>
       </c>
       <c r="E308" s="4" t="s">
-        <v>997</v>
+        <v>989</v>
       </c>
       <c r="F308" s="4" t="s">
-        <v>1121</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="309" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -9532,13 +9532,13 @@
         <v>760</v>
       </c>
       <c r="D309" s="4" t="s">
-        <v>859</v>
+        <v>851</v>
       </c>
       <c r="E309" s="4" t="s">
-        <v>1172</v>
+        <v>1164</v>
       </c>
       <c r="F309" s="4" t="s">
-        <v>1122</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="310" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -9547,13 +9547,13 @@
         <v>764</v>
       </c>
       <c r="D310" s="4" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
       <c r="E310" s="4" t="s">
-        <v>998</v>
+        <v>990</v>
       </c>
       <c r="F310" s="4" t="s">
-        <v>1123</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.3">
@@ -9562,45 +9562,45 @@
         <v>769</v>
       </c>
       <c r="D311" s="4" t="s">
-        <v>861</v>
+        <v>853</v>
       </c>
       <c r="E311" s="4" t="s">
-        <v>999</v>
+        <v>991</v>
       </c>
       <c r="F311" s="4" t="s">
-        <v>1124</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A312" s="40"/>
       <c r="B312" s="47"/>
       <c r="C312" s="1" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="D312" s="4" t="s">
-        <v>862</v>
+        <v>854</v>
       </c>
       <c r="E312" s="4" t="s">
-        <v>1000</v>
+        <v>992</v>
       </c>
       <c r="F312" s="4" t="s">
-        <v>1125</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="313" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A313" s="40"/>
       <c r="B313" s="47"/>
       <c r="C313" s="1" t="s">
-        <v>864</v>
+        <v>856</v>
       </c>
       <c r="D313" s="4" t="s">
-        <v>863</v>
+        <v>855</v>
       </c>
       <c r="E313" s="4" t="s">
-        <v>1001</v>
+        <v>993</v>
       </c>
       <c r="F313" s="4" t="s">
-        <v>1126</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.3">
@@ -9609,29 +9609,29 @@
         <v>812</v>
       </c>
       <c r="D314" s="4" t="s">
-        <v>865</v>
+        <v>857</v>
       </c>
       <c r="E314" s="4" t="s">
-        <v>1002</v>
+        <v>994</v>
       </c>
       <c r="F314" s="4" t="s">
-        <v>1127</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A315" s="40"/>
       <c r="B315" s="47"/>
       <c r="C315" s="1" t="s">
-        <v>867</v>
+        <v>859</v>
       </c>
       <c r="D315" s="4" t="s">
-        <v>866</v>
+        <v>858</v>
       </c>
       <c r="E315" s="4" t="s">
-        <v>1003</v>
+        <v>995</v>
       </c>
       <c r="F315" s="4" t="s">
-        <v>1128</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.3">
@@ -9640,13 +9640,13 @@
         <v>841</v>
       </c>
       <c r="D316" s="4" t="s">
-        <v>868</v>
+        <v>860</v>
       </c>
       <c r="E316" s="4" t="s">
-        <v>1004</v>
+        <v>996</v>
       </c>
       <c r="F316" s="4" t="s">
-        <v>1129</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.3">
@@ -9655,13 +9655,13 @@
         <v>845</v>
       </c>
       <c r="D317" s="4" t="s">
-        <v>869</v>
+        <v>861</v>
       </c>
       <c r="E317" s="4" t="s">
-        <v>1005</v>
+        <v>997</v>
       </c>
       <c r="F317" s="4" t="s">
-        <v>1130</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="318" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -9670,28 +9670,28 @@
         <v>849</v>
       </c>
       <c r="D318" s="4" t="s">
-        <v>870</v>
+        <v>862</v>
       </c>
       <c r="E318" s="4" t="s">
-        <v>1006</v>
+        <v>998</v>
       </c>
       <c r="F318" s="4" t="s">
-        <v>1131</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="319" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A319" s="40"/>
       <c r="C319" s="1" t="s">
-        <v>873</v>
+        <v>865</v>
       </c>
       <c r="D319" s="4" t="s">
-        <v>871</v>
+        <v>863</v>
       </c>
       <c r="E319" s="4" t="s">
-        <v>1007</v>
+        <v>999</v>
       </c>
       <c r="F319" s="4" t="s">
-        <v>1132</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="320" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -9700,28 +9700,28 @@
         <v>864</v>
       </c>
       <c r="D320" s="4" t="s">
-        <v>871</v>
+        <v>863</v>
       </c>
       <c r="E320" s="4" t="s">
-        <v>1008</v>
+        <v>1000</v>
       </c>
       <c r="F320" s="4" t="s">
-        <v>1133</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="321" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A321" s="40"/>
       <c r="C321" s="1" t="s">
-        <v>874</v>
+        <v>866</v>
       </c>
       <c r="D321" s="4" t="s">
-        <v>872</v>
+        <v>864</v>
       </c>
       <c r="E321" s="4" t="s">
-        <v>1009</v>
+        <v>1001</v>
       </c>
       <c r="F321" s="4" t="s">
-        <v>1134</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="322" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -9730,44 +9730,44 @@
         <v>878</v>
       </c>
       <c r="D322" s="4" t="s">
-        <v>872</v>
+        <v>864</v>
       </c>
       <c r="E322" s="4" t="s">
-        <v>1010</v>
+        <v>1002</v>
       </c>
       <c r="F322" s="4" t="s">
-        <v>1135</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="323" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A323" s="40"/>
       <c r="B323" s="47"/>
       <c r="C323" s="1" t="s">
-        <v>876</v>
+        <v>868</v>
       </c>
       <c r="D323" s="4" t="s">
-        <v>875</v>
+        <v>867</v>
       </c>
       <c r="E323" s="4" t="s">
-        <v>1011</v>
+        <v>1003</v>
       </c>
       <c r="F323" s="4" t="s">
-        <v>1136</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="324" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A324" s="40"/>
       <c r="C324" s="1" t="s">
-        <v>878</v>
+        <v>870</v>
       </c>
       <c r="D324" s="4" t="s">
-        <v>877</v>
+        <v>869</v>
       </c>
       <c r="E324" s="4" t="s">
-        <v>1012</v>
+        <v>1004</v>
       </c>
       <c r="F324" s="4" t="s">
-        <v>1137</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="325" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -9776,28 +9776,28 @@
         <v>907</v>
       </c>
       <c r="D325" s="4" t="s">
-        <v>877</v>
+        <v>869</v>
       </c>
       <c r="E325" s="4" t="s">
-        <v>1013</v>
+        <v>1005</v>
       </c>
       <c r="F325" s="4" t="s">
-        <v>1138</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="326" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A326" s="40"/>
       <c r="C326" s="1" t="s">
-        <v>880</v>
+        <v>872</v>
       </c>
       <c r="D326" s="4" t="s">
-        <v>879</v>
+        <v>871</v>
       </c>
       <c r="E326" s="4" t="s">
-        <v>1014</v>
+        <v>1006</v>
       </c>
       <c r="F326" s="4" t="s">
-        <v>1139</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="327" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -9806,124 +9806,124 @@
         <v>921</v>
       </c>
       <c r="D327" s="4" t="s">
-        <v>879</v>
+        <v>871</v>
       </c>
       <c r="E327" s="4" t="s">
-        <v>1014</v>
+        <v>1006</v>
       </c>
       <c r="F327" s="4" t="s">
-        <v>1139</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="328" spans="1:6" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A328" s="40"/>
       <c r="B328" s="47"/>
       <c r="C328" s="1" t="s">
-        <v>881</v>
+        <v>873</v>
       </c>
       <c r="D328" s="4" t="s">
-        <v>858</v>
+        <v>850</v>
       </c>
       <c r="E328" s="4" t="s">
-        <v>1015</v>
+        <v>1007</v>
       </c>
       <c r="F328" s="4" t="s">
-        <v>1140</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="329" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A329" s="76"/>
       <c r="B329" s="6"/>
       <c r="C329" s="1" t="s">
-        <v>883</v>
+        <v>875</v>
       </c>
       <c r="D329" s="4" t="s">
-        <v>882</v>
+        <v>874</v>
       </c>
       <c r="E329" s="4" t="s">
-        <v>1016</v>
+        <v>1008</v>
       </c>
       <c r="F329" s="4" t="s">
-        <v>1141</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="330" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A330" s="76"/>
       <c r="B330" s="6"/>
       <c r="C330" s="1" t="s">
-        <v>885</v>
+        <v>877</v>
       </c>
       <c r="D330" s="4" t="s">
-        <v>884</v>
+        <v>876</v>
       </c>
       <c r="E330" s="4" t="s">
-        <v>1017</v>
+        <v>1009</v>
       </c>
       <c r="F330" s="4" t="s">
-        <v>1142</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="331" spans="1:6" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A331" s="76"/>
       <c r="B331" s="6"/>
       <c r="C331" s="1" t="s">
-        <v>889</v>
+        <v>881</v>
       </c>
       <c r="D331" s="4" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
       <c r="E331" s="4" t="s">
-        <v>1018</v>
+        <v>1010</v>
       </c>
       <c r="F331" s="4" t="s">
-        <v>1143</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="332" spans="1:6" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A332" s="76"/>
       <c r="B332" s="6"/>
       <c r="C332" s="1" t="s">
-        <v>888</v>
+        <v>880</v>
       </c>
       <c r="D332" s="4" t="s">
-        <v>887</v>
+        <v>879</v>
       </c>
       <c r="E332" s="4" t="s">
-        <v>1019</v>
+        <v>1011</v>
       </c>
       <c r="F332" s="4" t="s">
-        <v>1144</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A333" s="76"/>
       <c r="B333" s="6"/>
       <c r="C333" s="1" t="s">
-        <v>891</v>
+        <v>883</v>
       </c>
       <c r="D333" s="4" t="s">
-        <v>890</v>
+        <v>882</v>
       </c>
       <c r="E333" s="4" t="s">
-        <v>1020</v>
+        <v>1012</v>
       </c>
       <c r="F333" s="4" t="s">
-        <v>1145</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A334" s="40"/>
       <c r="C334" s="1" t="s">
-        <v>894</v>
+        <v>886</v>
       </c>
       <c r="D334" s="4" t="s">
-        <v>892</v>
+        <v>884</v>
       </c>
       <c r="E334" s="4" t="s">
-        <v>1021</v>
+        <v>1013</v>
       </c>
       <c r="F334" s="4" t="s">
-        <v>1146</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.3">
@@ -9932,28 +9932,28 @@
         <v>1020</v>
       </c>
       <c r="D335" s="4" t="s">
-        <v>893</v>
+        <v>885</v>
       </c>
       <c r="E335" s="4" t="s">
-        <v>1022</v>
+        <v>1014</v>
       </c>
       <c r="F335" s="4" t="s">
-        <v>1147</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="336" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A336" s="40"/>
       <c r="C336" s="1" t="s">
-        <v>896</v>
+        <v>888</v>
       </c>
       <c r="D336" s="4" t="s">
-        <v>895</v>
+        <v>887</v>
       </c>
       <c r="E336" s="4" t="s">
-        <v>1023</v>
+        <v>1015</v>
       </c>
       <c r="F336" s="4" t="s">
-        <v>1148</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="337" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -9962,13 +9962,13 @@
         <v>1034</v>
       </c>
       <c r="D337" s="4" t="s">
-        <v>897</v>
+        <v>889</v>
       </c>
       <c r="E337" s="4" t="s">
-        <v>1024</v>
+        <v>1016</v>
       </c>
       <c r="F337" s="4" t="s">
-        <v>1149</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.3">
@@ -9977,13 +9977,13 @@
         <v>1045</v>
       </c>
       <c r="D338" s="4" t="s">
-        <v>898</v>
+        <v>890</v>
       </c>
       <c r="E338" s="4" t="s">
-        <v>1025</v>
+        <v>1017</v>
       </c>
       <c r="F338" s="4" t="s">
-        <v>1150</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.3">
@@ -9992,13 +9992,13 @@
         <v>1049</v>
       </c>
       <c r="D339" s="4" t="s">
-        <v>899</v>
+        <v>891</v>
       </c>
       <c r="E339" s="4" t="s">
-        <v>1026</v>
+        <v>1018</v>
       </c>
       <c r="F339" s="4" t="s">
-        <v>1151</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.3">
@@ -10007,29 +10007,29 @@
         <v>1053</v>
       </c>
       <c r="D340" s="4" t="s">
-        <v>900</v>
+        <v>892</v>
       </c>
       <c r="E340" s="4" t="s">
-        <v>1027</v>
+        <v>1019</v>
       </c>
       <c r="F340" s="4" t="s">
-        <v>1152</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="341" spans="1:6" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A341" s="40"/>
       <c r="B341" s="47"/>
       <c r="C341" s="1" t="s">
-        <v>902</v>
+        <v>894</v>
       </c>
       <c r="D341" s="4" t="s">
-        <v>901</v>
+        <v>893</v>
       </c>
       <c r="E341" s="4" t="s">
-        <v>1028</v>
+        <v>1020</v>
       </c>
       <c r="F341" s="4" t="s">
-        <v>1153</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="342" spans="1:6" ht="30.6" x14ac:dyDescent="0.3">
@@ -10038,13 +10038,13 @@
         <v>1082</v>
       </c>
       <c r="D342" s="4" t="s">
-        <v>903</v>
+        <v>895</v>
       </c>
       <c r="E342" s="4" t="s">
-        <v>1029</v>
+        <v>1021</v>
       </c>
       <c r="F342" s="4" t="s">
-        <v>1154</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="343" spans="1:6" ht="30.6" x14ac:dyDescent="0.3">
@@ -10053,13 +10053,13 @@
         <v>1086</v>
       </c>
       <c r="D343" s="4" t="s">
-        <v>904</v>
+        <v>896</v>
       </c>
       <c r="E343" s="4" t="s">
-        <v>1030</v>
+        <v>1022</v>
       </c>
       <c r="F343" s="4" t="s">
-        <v>1155</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="344" spans="1:6" ht="30.6" x14ac:dyDescent="0.3">
@@ -10068,13 +10068,13 @@
         <v>1090</v>
       </c>
       <c r="D344" s="4" t="s">
-        <v>905</v>
+        <v>897</v>
       </c>
       <c r="E344" s="4" t="s">
-        <v>1031</v>
+        <v>1023</v>
       </c>
       <c r="F344" s="4" t="s">
-        <v>1156</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="345" spans="1:6" ht="30.6" x14ac:dyDescent="0.3">
@@ -10083,13 +10083,13 @@
         <v>1096</v>
       </c>
       <c r="D345" s="4" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="E345" s="4" t="s">
-        <v>1032</v>
+        <v>1024</v>
       </c>
       <c r="F345" s="4" t="s">
-        <v>1157</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="346" spans="1:6" ht="30.6" x14ac:dyDescent="0.3">
@@ -10098,13 +10098,13 @@
         <v>1100</v>
       </c>
       <c r="D346" s="4" t="s">
-        <v>907</v>
+        <v>899</v>
       </c>
       <c r="E346" s="4" t="s">
-        <v>1033</v>
+        <v>1025</v>
       </c>
       <c r="F346" s="4" t="s">
-        <v>1158</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="347" spans="1:6" ht="30.6" x14ac:dyDescent="0.3">
@@ -10113,13 +10113,13 @@
         <v>1104</v>
       </c>
       <c r="D347" s="4" t="s">
-        <v>908</v>
+        <v>900</v>
       </c>
       <c r="E347" s="4" t="s">
-        <v>1034</v>
+        <v>1026</v>
       </c>
       <c r="F347" s="4" t="s">
-        <v>1159</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="348" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -10128,13 +10128,13 @@
         <v>1115</v>
       </c>
       <c r="D348" s="4" t="s">
-        <v>909</v>
+        <v>901</v>
       </c>
       <c r="E348" s="4" t="s">
-        <v>1035</v>
+        <v>1027</v>
       </c>
       <c r="F348" s="4" t="s">
-        <v>1160</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="349" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -10143,13 +10143,13 @@
         <v>1119</v>
       </c>
       <c r="D349" s="4" t="s">
-        <v>910</v>
+        <v>902</v>
       </c>
       <c r="E349" s="4" t="s">
-        <v>1036</v>
+        <v>1028</v>
       </c>
       <c r="F349" s="4" t="s">
-        <v>1161</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="350" spans="1:6" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -10158,28 +10158,28 @@
         <v>1123</v>
       </c>
       <c r="D350" s="4" t="s">
-        <v>911</v>
+        <v>903</v>
       </c>
       <c r="E350" s="4" t="s">
-        <v>1035</v>
+        <v>1027</v>
       </c>
       <c r="F350" s="4" t="s">
-        <v>1160</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="351" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A351" s="40"/>
       <c r="C351" s="1" t="s">
-        <v>914</v>
+        <v>906</v>
       </c>
       <c r="D351" s="4" t="s">
-        <v>912</v>
+        <v>904</v>
       </c>
       <c r="E351" s="4" t="s">
-        <v>1037</v>
+        <v>1029</v>
       </c>
       <c r="F351" s="4" t="s">
-        <v>1162</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="352" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -10188,13 +10188,13 @@
         <v>1143</v>
       </c>
       <c r="D352" s="4" t="s">
-        <v>913</v>
+        <v>905</v>
       </c>
       <c r="E352" s="4" t="s">
-        <v>1038</v>
+        <v>1030</v>
       </c>
       <c r="F352" s="4" t="s">
-        <v>1163</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.3">
@@ -10203,13 +10203,13 @@
         <v>1176</v>
       </c>
       <c r="D353" s="4" t="s">
-        <v>915</v>
+        <v>907</v>
       </c>
       <c r="E353" s="4" t="s">
-        <v>1039</v>
+        <v>1031</v>
       </c>
       <c r="F353" s="4" t="s">
-        <v>1164</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.3">
@@ -10218,13 +10218,13 @@
         <v>1179</v>
       </c>
       <c r="D354" s="4" t="s">
-        <v>916</v>
+        <v>908</v>
       </c>
       <c r="E354" s="4" t="s">
-        <v>1040</v>
+        <v>1032</v>
       </c>
       <c r="F354" s="4" t="s">
-        <v>1165</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.3">
@@ -10233,13 +10233,13 @@
         <v>1182</v>
       </c>
       <c r="D355" s="4" t="s">
-        <v>917</v>
+        <v>909</v>
       </c>
       <c r="E355" s="4" t="s">
-        <v>1041</v>
+        <v>1033</v>
       </c>
       <c r="F355" s="4" t="s">
-        <v>1166</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.3">
@@ -10248,13 +10248,13 @@
         <v>1185</v>
       </c>
       <c r="D356" s="4" t="s">
-        <v>918</v>
+        <v>910</v>
       </c>
       <c r="E356" s="4" t="s">
-        <v>1042</v>
+        <v>1034</v>
       </c>
       <c r="F356" s="4" t="s">
-        <v>1167</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.3">
@@ -10263,13 +10263,13 @@
         <v>1188</v>
       </c>
       <c r="D357" s="4" t="s">
-        <v>919</v>
+        <v>911</v>
       </c>
       <c r="E357" s="4" t="s">
-        <v>1043</v>
+        <v>1035</v>
       </c>
       <c r="F357" s="4" t="s">
-        <v>1168</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="358" spans="1:6" ht="30.6" x14ac:dyDescent="0.3">
@@ -10278,13 +10278,13 @@
         <v>1191</v>
       </c>
       <c r="D358" s="4" t="s">
-        <v>920</v>
+        <v>912</v>
       </c>
       <c r="E358" s="4" t="s">
-        <v>1044</v>
+        <v>1036</v>
       </c>
       <c r="F358" s="4" t="s">
-        <v>1169</v>
+        <v>1161</v>
       </c>
     </row>
   </sheetData>
